--- a/Sample descriptive statistics.xlsx
+++ b/Sample descriptive statistics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yimi/Desktop/Desktop Contents/Dissertation/Data Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FAFB28-A76A-E444-AC55-5AC46FF1B883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74ECEED-60EE-9F49-ABDC-D6EC2D9F614B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54380" yWindow="2120" windowWidth="47340" windowHeight="28180" xr2:uid="{A57578E6-31BD-C54B-9DD4-584B5A4E74C6}"/>
+    <workbookView xWindow="3440" yWindow="620" windowWidth="47340" windowHeight="28180" xr2:uid="{A57578E6-31BD-C54B-9DD4-584B5A4E74C6}"/>
   </bookViews>
   <sheets>
     <sheet name="study 1_summary%" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="109">
   <si>
     <t>25to29</t>
   </si>
@@ -1006,129 +1006,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1165,12 +1042,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1179,6 +1050,135 @@
     </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1499,7 +1499,7 @@
   <dimension ref="A2:X42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H64" sqref="H64"/>
+      <selection activeCell="AH28" sqref="AH28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -1532,59 +1532,59 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:24" s="73" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="142" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="140" t="s">
+      <c r="B2" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="142" t="s">
+      <c r="C2" s="155" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="144" t="s">
+      <c r="D2" s="157" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="145"/>
-      <c r="F2" s="146" t="s">
+      <c r="E2" s="158"/>
+      <c r="F2" s="159" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="146"/>
-      <c r="H2" s="144" t="s">
+      <c r="G2" s="159"/>
+      <c r="H2" s="157" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="145"/>
-      <c r="J2" s="147" t="s">
+      <c r="I2" s="158"/>
+      <c r="J2" s="148" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="147"/>
-      <c r="L2" s="147"/>
-      <c r="M2" s="147"/>
-      <c r="N2" s="152" t="s">
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="146" t="s">
         <v>60</v>
       </c>
-      <c r="O2" s="153"/>
-      <c r="P2" s="147" t="s">
+      <c r="O2" s="147"/>
+      <c r="P2" s="148" t="s">
         <v>52</v>
       </c>
-      <c r="Q2" s="147"/>
-      <c r="R2" s="147"/>
-      <c r="S2" s="147"/>
-      <c r="T2" s="154" t="s">
+      <c r="Q2" s="148"/>
+      <c r="R2" s="148"/>
+      <c r="S2" s="148"/>
+      <c r="T2" s="149" t="s">
         <v>65</v>
       </c>
-      <c r="U2" s="150" t="s">
+      <c r="U2" s="144" t="s">
         <v>66</v>
       </c>
-      <c r="V2" s="138" t="s">
+      <c r="V2" s="151" t="s">
         <v>56</v>
       </c>
-      <c r="W2" s="139"/>
-      <c r="X2" s="139"/>
+      <c r="W2" s="152"/>
+      <c r="X2" s="152"/>
     </row>
     <row r="3" spans="1:24" s="95" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="149"/>
-      <c r="B3" s="141"/>
-      <c r="C3" s="143"/>
+      <c r="A3" s="143"/>
+      <c r="B3" s="154"/>
+      <c r="C3" s="156"/>
       <c r="D3" s="87" t="s">
         <v>0</v>
       </c>
@@ -1633,8 +1633,8 @@
       <c r="S3" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="T3" s="155"/>
-      <c r="U3" s="151"/>
+      <c r="T3" s="150"/>
+      <c r="U3" s="145"/>
       <c r="V3" s="93" t="s">
         <v>57</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="43">
         <v>1</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>299.22198115645358</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="43">
         <v>2</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>297.41250629074335</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="43">
         <v>3</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>289.47418433121163</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="43">
         <v>4</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>261.99000447529414</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="43">
         <v>5</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>295.91112353214646</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="43">
         <v>6</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>300.47081422622091</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="43">
         <v>7</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>222.69539014695937</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="43">
         <v>8</v>
       </c>
@@ -2413,7 +2413,7 @@
         <v>290.0773085930432</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="43">
         <v>9</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>312.36953213414614</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="43">
         <v>10</v>
       </c>
@@ -2604,7 +2604,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="43">
         <v>11</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>298.95524246912123</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="43">
         <v>12</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>259.55005350891611</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="43">
         <v>13</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>283.44446669367096</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="43">
         <v>14</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>286.11349224362908</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="43">
         <v>15</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>279.74309304958683</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="43">
         <v>16</v>
       </c>
@@ -3179,7 +3179,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="43">
         <v>17</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>313.04735063924011</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="43">
         <v>18</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>264.82253703578158</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="43">
         <v>19</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>272.93605504319373</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="43">
         <v>20</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>261.07193573944943</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="43">
         <v>21</v>
       </c>
@@ -3659,7 +3659,7 @@
         <v>303.61529664615426</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="43">
         <v>22</v>
       </c>
@@ -3755,7 +3755,7 @@
         <v>297.97331097729716</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="43">
         <v>23</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>304.56171357934534</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="43">
         <v>24</v>
       </c>
@@ -3947,7 +3947,7 @@
         <v>243.58994178314578</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="43">
         <v>25</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>282.07589619227923</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="43">
         <v>26</v>
       </c>
@@ -4139,7 +4139,7 @@
         <v>287.7490973904923</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="43">
         <v>27</v>
       </c>
@@ -4235,7 +4235,7 @@
         <v>302.0193453567685</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="43">
         <v>28</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>284.64087719434178</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="43">
         <v>29</v>
       </c>
@@ -4427,7 +4427,7 @@
         <v>279.38697035012018</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="43">
         <v>30</v>
       </c>
@@ -4523,7 +4523,7 @@
         <v>295.17592358272719</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="43">
         <v>31</v>
       </c>
@@ -4618,7 +4618,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="43">
         <v>32</v>
       </c>
@@ -4714,7 +4714,7 @@
         <v>308.93291034592158</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="43">
         <v>33</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>267.76240932283491</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="43">
         <v>34</v>
       </c>
@@ -4906,7 +4906,7 @@
         <v>291.29383225475527</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="43">
         <v>35</v>
       </c>
@@ -5002,7 +5002,7 @@
         <v>284.80098224404725</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="59"/>
       <c r="B39" s="60" t="s">
         <v>55</v>
@@ -5130,11 +5130,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:T3"/>
     <mergeCell ref="V2:X2"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -5142,6 +5137,11 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:M2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:T3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5152,7 +5152,7 @@
   <dimension ref="A2:W33"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+      <selection activeCell="AC19" sqref="AC19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -5183,58 +5183,58 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:23" s="102" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="160" t="s">
+      <c r="A2" s="164" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="162" t="s">
+      <c r="B2" s="166" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="142" t="s">
+      <c r="C2" s="155" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="144" t="s">
+      <c r="D2" s="157" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="145"/>
-      <c r="F2" s="146" t="s">
+      <c r="E2" s="158"/>
+      <c r="F2" s="159" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="146"/>
-      <c r="H2" s="144" t="s">
+      <c r="G2" s="159"/>
+      <c r="H2" s="157" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="145"/>
-      <c r="J2" s="147" t="s">
+      <c r="I2" s="158"/>
+      <c r="J2" s="148" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="147"/>
-      <c r="L2" s="147"/>
-      <c r="M2" s="147"/>
-      <c r="N2" s="152" t="s">
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="146" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="147"/>
-      <c r="P2" s="147"/>
-      <c r="Q2" s="153"/>
-      <c r="R2" s="154" t="s">
+      <c r="O2" s="148"/>
+      <c r="P2" s="148"/>
+      <c r="Q2" s="147"/>
+      <c r="R2" s="149" t="s">
         <v>65</v>
       </c>
-      <c r="S2" s="164" t="s">
+      <c r="S2" s="160" t="s">
         <v>66</v>
       </c>
-      <c r="T2" s="164" t="s">
+      <c r="T2" s="160" t="s">
         <v>107</v>
       </c>
-      <c r="U2" s="166" t="s">
+      <c r="U2" s="162" t="s">
         <v>56</v>
       </c>
-      <c r="V2" s="167"/>
-      <c r="W2" s="167"/>
+      <c r="V2" s="163"/>
+      <c r="W2" s="163"/>
     </row>
     <row r="3" spans="1:23" s="106" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A3" s="161"/>
-      <c r="B3" s="163"/>
-      <c r="C3" s="143"/>
+      <c r="A3" s="165"/>
+      <c r="B3" s="167"/>
+      <c r="C3" s="156"/>
       <c r="D3" s="87" t="s">
         <v>0</v>
       </c>
@@ -5277,9 +5277,9 @@
       <c r="Q3" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="R3" s="155"/>
-      <c r="S3" s="165"/>
-      <c r="T3" s="165"/>
+      <c r="R3" s="150"/>
+      <c r="S3" s="161"/>
+      <c r="T3" s="161"/>
       <c r="U3" s="104" t="s">
         <v>57</v>
       </c>
@@ -6215,8 +6215,9 @@
         <f>'Study 2_summary'!Z13</f>
         <v>272.6573969270961</v>
       </c>
-      <c r="W13" s="109" t="s">
-        <v>73</v>
+      <c r="W13" s="109">
+        <f>'Study 2_summary'!AA13</f>
+        <v>288.34181084957027</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -6772,8 +6773,9 @@
         <f>'Study 2_summary'!Z19</f>
         <v>223.22870458074536</v>
       </c>
-      <c r="W19" s="109" t="s">
-        <v>73</v>
+      <c r="W19" s="109">
+        <f>'Study 2_summary'!AA19</f>
+        <v>261.05072150847457</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -7852,6 +7854,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="N2:Q2"/>
     <mergeCell ref="R2:R3"/>
@@ -7859,11 +7866,6 @@
     <mergeCell ref="U2:W2"/>
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="T2:T3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7873,8 +7875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FAFC4B7-E441-634B-841A-5B8FC3AC7705}">
   <dimension ref="A2:AB40"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N61" sqref="N61"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD42" sqref="AD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -7896,68 +7898,66 @@
     <col min="19" max="19" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="24" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.5" style="41" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.83203125" style="42" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8" style="42" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.33203125" style="42" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.6640625" style="41" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="9" style="42" bestFit="1" customWidth="1"/>
     <col min="29" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:28" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="175" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="177" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="131" t="s">
+      <c r="C2" s="169" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="132"/>
-      <c r="E2" s="133" t="s">
+      <c r="D2" s="170"/>
+      <c r="E2" s="168" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="133"/>
-      <c r="G2" s="131" t="s">
+      <c r="F2" s="168"/>
+      <c r="G2" s="169" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="133"/>
-      <c r="I2" s="132"/>
-      <c r="J2" s="133" t="s">
+      <c r="H2" s="168"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="168" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="133"/>
-      <c r="N2" s="133"/>
-      <c r="O2" s="131" t="s">
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="168"/>
+      <c r="N2" s="168"/>
+      <c r="O2" s="169" t="s">
         <v>60</v>
       </c>
-      <c r="P2" s="132"/>
-      <c r="Q2" s="133" t="s">
+      <c r="P2" s="170"/>
+      <c r="Q2" s="168" t="s">
         <v>52</v>
       </c>
-      <c r="R2" s="133"/>
-      <c r="S2" s="133"/>
-      <c r="T2" s="133"/>
-      <c r="U2" s="133"/>
-      <c r="V2" s="131" t="s">
+      <c r="R2" s="168"/>
+      <c r="S2" s="168"/>
+      <c r="T2" s="168"/>
+      <c r="U2" s="168"/>
+      <c r="V2" s="169" t="s">
         <v>63</v>
       </c>
-      <c r="W2" s="133"/>
-      <c r="X2" s="132"/>
-      <c r="Y2" s="136" t="s">
+      <c r="W2" s="168"/>
+      <c r="X2" s="170"/>
+      <c r="Y2" s="173" t="s">
         <v>64</v>
       </c>
-      <c r="Z2" s="134" t="s">
+      <c r="Z2" s="171" t="s">
         <v>56</v>
       </c>
-      <c r="AA2" s="135"/>
-      <c r="AB2" s="135"/>
+      <c r="AA2" s="172"/>
+      <c r="AB2" s="172"/>
     </row>
     <row r="3" spans="1:28" s="7" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="128"/>
-      <c r="B3" s="130"/>
+      <c r="A3" s="176"/>
+      <c r="B3" s="178"/>
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -8024,7 +8024,7 @@
       <c r="X3" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="Y3" s="137"/>
+      <c r="Y3" s="174"/>
       <c r="Z3" s="5" t="s">
         <v>57</v>
       </c>
@@ -11042,32 +11042,32 @@
         <f t="shared" si="0"/>
         <v>38493</v>
       </c>
-      <c r="Y40" s="41">
+      <c r="Y40" s="141">
         <v>36269</v>
       </c>
-      <c r="Z40" s="42">
+      <c r="Z40" s="141">
         <v>38541</v>
       </c>
-      <c r="AA40" s="42">
+      <c r="AA40" s="141">
         <v>38541</v>
       </c>
-      <c r="AB40" s="42">
+      <c r="AB40" s="141">
         <v>30079</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:I2"/>
     <mergeCell ref="J2:N2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="Q2:U2"/>
     <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="Y2:Y3"/>
     <mergeCell ref="V2:X2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15344,8 +15344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A2530F5-203B-0F43-BF74-1F5B4A183879}">
   <dimension ref="A2:AA33"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF57" sqref="AF57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -15377,128 +15377,128 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="179" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="158" t="s">
+      <c r="B2" s="181" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="131" t="s">
+      <c r="C2" s="169" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="132"/>
-      <c r="E2" s="133" t="s">
+      <c r="D2" s="170"/>
+      <c r="E2" s="168" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="133"/>
-      <c r="G2" s="131" t="s">
+      <c r="F2" s="168"/>
+      <c r="G2" s="169" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="133"/>
-      <c r="I2" s="132"/>
-      <c r="J2" s="133" t="s">
+      <c r="H2" s="168"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="168" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="133"/>
-      <c r="N2" s="133"/>
-      <c r="O2" s="131" t="s">
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="168"/>
+      <c r="N2" s="168"/>
+      <c r="O2" s="169" t="s">
         <v>52</v>
       </c>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="133"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="132"/>
-      <c r="T2" s="131" t="s">
+      <c r="P2" s="168"/>
+      <c r="Q2" s="168"/>
+      <c r="R2" s="168"/>
+      <c r="S2" s="170"/>
+      <c r="T2" s="169" t="s">
         <v>63</v>
       </c>
-      <c r="U2" s="133"/>
-      <c r="V2" s="132"/>
-      <c r="W2" s="136" t="s">
+      <c r="U2" s="168"/>
+      <c r="V2" s="170"/>
+      <c r="W2" s="173" t="s">
         <v>64</v>
       </c>
-      <c r="X2" s="180" t="s">
+      <c r="X2" s="183" t="s">
         <v>107</v>
       </c>
-      <c r="Y2" s="134" t="s">
+      <c r="Y2" s="171" t="s">
         <v>56</v>
       </c>
-      <c r="Z2" s="135"/>
-      <c r="AA2" s="135"/>
+      <c r="Z2" s="172"/>
+      <c r="AA2" s="172"/>
     </row>
     <row r="3" spans="1:27" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.2">
-      <c r="A3" s="157"/>
-      <c r="B3" s="159"/>
-      <c r="C3" s="168" t="s">
+      <c r="A3" s="180"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="169" t="s">
+      <c r="D3" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="170" t="s">
+      <c r="E3" s="129" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="170" t="s">
+      <c r="F3" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="168" t="s">
+      <c r="G3" s="127" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="170" t="s">
+      <c r="H3" s="129" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="169" t="s">
+      <c r="I3" s="128" t="s">
         <v>71</v>
       </c>
-      <c r="J3" s="170" t="s">
+      <c r="J3" s="129" t="s">
         <v>67</v>
       </c>
-      <c r="K3" s="170" t="s">
+      <c r="K3" s="129" t="s">
         <v>68</v>
       </c>
-      <c r="L3" s="170" t="s">
+      <c r="L3" s="129" t="s">
         <v>69</v>
       </c>
-      <c r="M3" s="170" t="s">
+      <c r="M3" s="129" t="s">
         <v>70</v>
       </c>
-      <c r="N3" s="170" t="s">
+      <c r="N3" s="129" t="s">
         <v>71</v>
       </c>
-      <c r="O3" s="168" t="s">
+      <c r="O3" s="127" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="170" t="s">
+      <c r="P3" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="Q3" s="170" t="s">
+      <c r="Q3" s="129" t="s">
         <v>46</v>
       </c>
-      <c r="R3" s="170" t="s">
+      <c r="R3" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="S3" s="169" t="s">
+      <c r="S3" s="128" t="s">
         <v>71</v>
       </c>
-      <c r="T3" s="168">
+      <c r="T3" s="127">
         <v>0</v>
       </c>
-      <c r="U3" s="170">
+      <c r="U3" s="129">
         <v>1</v>
       </c>
-      <c r="V3" s="169" t="s">
+      <c r="V3" s="128" t="s">
         <v>71</v>
       </c>
-      <c r="W3" s="137"/>
-      <c r="X3" s="181"/>
-      <c r="Y3" s="171" t="s">
+      <c r="W3" s="174"/>
+      <c r="X3" s="184"/>
+      <c r="Y3" s="130" t="s">
         <v>57</v>
       </c>
-      <c r="Z3" s="172" t="s">
+      <c r="Z3" s="131" t="s">
         <v>58</v>
       </c>
-      <c r="AA3" s="172" t="s">
+      <c r="AA3" s="131" t="s">
         <v>59</v>
       </c>
     </row>
@@ -15527,7 +15527,7 @@
       <c r="H4" s="17">
         <v>239</v>
       </c>
-      <c r="I4" s="173">
+      <c r="I4" s="132">
         <v>43</v>
       </c>
       <c r="J4" s="12">
@@ -15570,7 +15570,7 @@
       <c r="W4" s="15">
         <v>8.4409566517189827</v>
       </c>
-      <c r="X4" s="182">
+      <c r="X4" s="139">
         <v>19.240539263289616</v>
       </c>
       <c r="Y4" s="16">
@@ -15608,7 +15608,7 @@
       <c r="H5" s="17">
         <v>185</v>
       </c>
-      <c r="I5" s="173">
+      <c r="I5" s="132">
         <v>102</v>
       </c>
       <c r="J5" s="12">
@@ -15647,7 +15647,7 @@
       <c r="W5" s="15">
         <v>7.1656250000000004</v>
       </c>
-      <c r="X5" s="182">
+      <c r="X5" s="139">
         <v>11.572693452380943</v>
       </c>
       <c r="Y5" s="16">
@@ -15685,7 +15685,7 @@
       <c r="H6" s="17">
         <v>290</v>
       </c>
-      <c r="I6" s="173">
+      <c r="I6" s="132">
         <v>30</v>
       </c>
       <c r="J6" s="12">
@@ -15726,7 +15726,7 @@
       <c r="W6" s="15">
         <v>7.6944444444444446</v>
       </c>
-      <c r="X6" s="182">
+      <c r="X6" s="139">
         <v>10.20430473352971</v>
       </c>
       <c r="Y6" s="16">
@@ -15764,7 +15764,7 @@
       <c r="H7" s="17">
         <v>217</v>
       </c>
-      <c r="I7" s="173">
+      <c r="I7" s="132">
         <v>43</v>
       </c>
       <c r="J7" s="12">
@@ -15809,7 +15809,7 @@
       <c r="W7" s="15">
         <v>9.2848297213622288</v>
       </c>
-      <c r="X7" s="182">
+      <c r="X7" s="139">
         <v>22.730231734647376</v>
       </c>
       <c r="Y7" s="16">
@@ -15847,7 +15847,7 @@
       <c r="H8" s="17">
         <v>129</v>
       </c>
-      <c r="I8" s="173">
+      <c r="I8" s="132">
         <v>228</v>
       </c>
       <c r="J8" s="12">
@@ -15888,7 +15888,7 @@
       <c r="W8" s="15">
         <v>6.7397260273972606</v>
       </c>
-      <c r="X8" s="182">
+      <c r="X8" s="139">
         <v>7.0452495378927811</v>
       </c>
       <c r="Y8" s="16">
@@ -15926,7 +15926,7 @@
       <c r="H9" s="17">
         <v>270</v>
       </c>
-      <c r="I9" s="173">
+      <c r="I9" s="132">
         <v>105</v>
       </c>
       <c r="J9" s="12">
@@ -15967,7 +15967,7 @@
       <c r="W9" s="15">
         <v>8.2933478735005455</v>
       </c>
-      <c r="X9" s="182">
+      <c r="X9" s="139">
         <v>11.493382000131508</v>
       </c>
       <c r="Y9" s="16">
@@ -16005,7 +16005,7 @@
       <c r="H10" s="17">
         <v>266</v>
       </c>
-      <c r="I10" s="173">
+      <c r="I10" s="132">
         <v>33</v>
       </c>
       <c r="J10" s="12">
@@ -16046,7 +16046,7 @@
       <c r="W10" s="15">
         <v>7.6190476190476186</v>
       </c>
-      <c r="X10" s="182">
+      <c r="X10" s="139">
         <v>18.2393172221675</v>
       </c>
       <c r="Y10" s="16">
@@ -16084,7 +16084,7 @@
       <c r="H11" s="17">
         <v>263</v>
       </c>
-      <c r="I11" s="173">
+      <c r="I11" s="132">
         <v>75</v>
       </c>
       <c r="J11" s="12">
@@ -16123,7 +16123,7 @@
       <c r="W11" s="15">
         <v>8.173754556500608</v>
       </c>
-      <c r="X11" s="182">
+      <c r="X11" s="139">
         <v>14.59319101763848</v>
       </c>
       <c r="Y11" s="16">
@@ -16161,7 +16161,7 @@
       <c r="H12" s="17">
         <v>89</v>
       </c>
-      <c r="I12" s="173">
+      <c r="I12" s="132">
         <v>19</v>
       </c>
       <c r="J12" s="12">
@@ -16202,7 +16202,7 @@
       <c r="W12" s="15">
         <v>7.5668789808917198</v>
       </c>
-      <c r="X12" s="182">
+      <c r="X12" s="139">
         <v>8.8680564263322843</v>
       </c>
       <c r="Y12" s="16">
@@ -16240,7 +16240,7 @@
       <c r="H13" s="17">
         <v>196</v>
       </c>
-      <c r="I13" s="173">
+      <c r="I13" s="132">
         <v>203</v>
       </c>
       <c r="J13" s="12">
@@ -16281,7 +16281,7 @@
       <c r="W13" s="15">
         <v>9.5914786967418539</v>
       </c>
-      <c r="X13" s="182">
+      <c r="X13" s="139">
         <v>20.882017697342302</v>
       </c>
       <c r="Y13" s="16">
@@ -16319,7 +16319,7 @@
       <c r="H14" s="17">
         <v>121</v>
       </c>
-      <c r="I14" s="173">
+      <c r="I14" s="132">
         <v>339</v>
       </c>
       <c r="J14" s="12">
@@ -16362,7 +16362,7 @@
       <c r="W14" s="15">
         <v>9.437587657784011</v>
       </c>
-      <c r="X14" s="182">
+      <c r="X14" s="139">
         <v>12.944207650273219</v>
       </c>
       <c r="Y14" s="16">
@@ -16400,7 +16400,7 @@
       <c r="H15" s="17">
         <v>115</v>
       </c>
-      <c r="I15" s="173">
+      <c r="I15" s="132">
         <v>75</v>
       </c>
       <c r="J15" s="12">
@@ -16441,7 +16441,7 @@
       <c r="W15" s="15">
         <v>8.1440443213296394</v>
       </c>
-      <c r="X15" s="182">
+      <c r="X15" s="139">
         <v>14.83679300285638</v>
       </c>
       <c r="Y15" s="16">
@@ -16479,7 +16479,7 @@
       <c r="H16" s="17">
         <v>170</v>
       </c>
-      <c r="I16" s="173">
+      <c r="I16" s="132">
         <v>25</v>
       </c>
       <c r="J16" s="12">
@@ -16522,7 +16522,7 @@
       <c r="W16" s="15">
         <v>8.6264880952380949</v>
       </c>
-      <c r="X16" s="182">
+      <c r="X16" s="139">
         <v>14.12843402139954</v>
       </c>
       <c r="Y16" s="16">
@@ -16560,7 +16560,7 @@
       <c r="H17" s="17">
         <v>220</v>
       </c>
-      <c r="I17" s="173">
+      <c r="I17" s="132">
         <v>70</v>
       </c>
       <c r="J17" s="12">
@@ -16601,7 +16601,7 @@
       <c r="W17" s="15">
         <v>7.0861008610086103</v>
       </c>
-      <c r="X17" s="182">
+      <c r="X17" s="139">
         <v>6.1124455205811072</v>
       </c>
       <c r="Y17" s="16">
@@ -16639,7 +16639,7 @@
       <c r="H18" s="17">
         <v>159</v>
       </c>
-      <c r="I18" s="173">
+      <c r="I18" s="132">
         <v>32</v>
       </c>
       <c r="J18" s="12">
@@ -16680,7 +16680,7 @@
       <c r="W18" s="15">
         <v>7.0608695652173914</v>
       </c>
-      <c r="X18" s="182">
+      <c r="X18" s="139">
         <v>8.7631669535284118</v>
       </c>
       <c r="Y18" s="16">
@@ -16718,7 +16718,7 @@
       <c r="H19" s="17">
         <v>108</v>
       </c>
-      <c r="I19" s="173">
+      <c r="I19" s="132">
         <v>327</v>
       </c>
       <c r="J19" s="12">
@@ -16757,7 +16757,7 @@
       <c r="W19" s="15">
         <v>8.2504317789291886</v>
       </c>
-      <c r="X19" s="182">
+      <c r="X19" s="139">
         <v>8.1195496894409906</v>
       </c>
       <c r="Y19" s="16">
@@ -16795,7 +16795,7 @@
       <c r="H20" s="17">
         <v>131</v>
       </c>
-      <c r="I20" s="173">
+      <c r="I20" s="132">
         <v>84</v>
       </c>
       <c r="J20" s="12">
@@ -16834,7 +16834,7 @@
       <c r="W20" s="15">
         <v>9.6396551724137929</v>
       </c>
-      <c r="X20" s="182">
+      <c r="X20" s="139">
         <v>20.135133249159562</v>
       </c>
       <c r="Y20" s="16">
@@ -16872,7 +16872,7 @@
       <c r="H21" s="17">
         <v>223</v>
       </c>
-      <c r="I21" s="173">
+      <c r="I21" s="132">
         <v>46</v>
       </c>
       <c r="J21" s="12">
@@ -16917,7 +16917,7 @@
       <c r="W21" s="15">
         <v>9.7808219178082183</v>
       </c>
-      <c r="X21" s="182">
+      <c r="X21" s="139">
         <v>17.386456582633059</v>
       </c>
       <c r="Y21" s="16">
@@ -16955,7 +16955,7 @@
       <c r="H22" s="17">
         <v>240</v>
       </c>
-      <c r="I22" s="173">
+      <c r="I22" s="132">
         <v>34</v>
       </c>
       <c r="J22" s="12">
@@ -16998,7 +16998,7 @@
       <c r="W22" s="15">
         <v>8.7468354430379751</v>
       </c>
-      <c r="X22" s="182">
+      <c r="X22" s="139">
         <v>23.795272243006643</v>
       </c>
       <c r="Y22" s="16">
@@ -17036,7 +17036,7 @@
       <c r="H23" s="17">
         <v>461</v>
       </c>
-      <c r="I23" s="173">
+      <c r="I23" s="132">
         <v>52</v>
       </c>
       <c r="J23" s="12">
@@ -17077,7 +17077,7 @@
       <c r="W23" s="15">
         <v>5.3720164609053498</v>
       </c>
-      <c r="X23" s="182">
+      <c r="X23" s="139">
         <v>9.1353352761255966</v>
       </c>
       <c r="Y23" s="16">
@@ -17115,7 +17115,7 @@
       <c r="H24" s="17">
         <v>152</v>
       </c>
-      <c r="I24" s="173">
+      <c r="I24" s="132">
         <v>10</v>
       </c>
       <c r="J24" s="12">
@@ -17156,7 +17156,7 @@
       <c r="W24" s="15">
         <v>7.5054945054945055</v>
       </c>
-      <c r="X24" s="182">
+      <c r="X24" s="139">
         <v>7.102267881422577</v>
       </c>
       <c r="Y24" s="16">
@@ -17194,7 +17194,7 @@
       <c r="H25" s="17">
         <v>266</v>
       </c>
-      <c r="I25" s="173">
+      <c r="I25" s="132">
         <v>25</v>
       </c>
       <c r="J25" s="12">
@@ -17235,7 +17235,7 @@
       <c r="W25" s="15">
         <v>7.4538216560509554</v>
       </c>
-      <c r="X25" s="182">
+      <c r="X25" s="139">
         <v>9.2587503172465961</v>
       </c>
       <c r="Y25" s="16">
@@ -17273,7 +17273,7 @@
       <c r="H26" s="17">
         <v>219</v>
       </c>
-      <c r="I26" s="173">
+      <c r="I26" s="132">
         <v>22</v>
       </c>
       <c r="J26" s="12">
@@ -17312,7 +17312,7 @@
       <c r="W26" s="15">
         <v>6.7753222836095768</v>
       </c>
-      <c r="X26" s="182">
+      <c r="X26" s="139">
         <v>8.9202146690518909</v>
       </c>
       <c r="Y26" s="16">
@@ -17350,7 +17350,7 @@
       <c r="H27" s="17">
         <v>366</v>
       </c>
-      <c r="I27" s="173">
+      <c r="I27" s="132">
         <v>16</v>
       </c>
       <c r="J27" s="12">
@@ -17389,7 +17389,7 @@
       <c r="W27" s="15">
         <v>6.0267639902676402</v>
       </c>
-      <c r="X27" s="182">
+      <c r="X27" s="139">
         <v>18.677670029751333</v>
       </c>
       <c r="Y27" s="16">
@@ -17427,7 +17427,7 @@
       <c r="H28" s="17">
         <v>157</v>
       </c>
-      <c r="I28" s="173">
+      <c r="I28" s="132">
         <v>200</v>
       </c>
       <c r="J28" s="12">
@@ -17468,7 +17468,7 @@
       <c r="W28" s="15">
         <v>8.017350157728707</v>
       </c>
-      <c r="X28" s="182">
+      <c r="X28" s="139">
         <v>13.597226961948317</v>
       </c>
       <c r="Y28" s="16">
@@ -17506,7 +17506,7 @@
       <c r="H29" s="17">
         <v>327</v>
       </c>
-      <c r="I29" s="173">
+      <c r="I29" s="132">
         <v>34</v>
       </c>
       <c r="J29" s="12">
@@ -17549,7 +17549,7 @@
       <c r="W29" s="15">
         <v>10.291596638655463</v>
       </c>
-      <c r="X29" s="182">
+      <c r="X29" s="139">
         <v>19.353680470376638</v>
       </c>
       <c r="Y29" s="16">
@@ -17587,7 +17587,7 @@
       <c r="H30" s="38">
         <v>5579</v>
       </c>
-      <c r="I30" s="174">
+      <c r="I30" s="133">
         <v>2272</v>
       </c>
       <c r="J30" s="33">
@@ -17632,7 +17632,7 @@
       <c r="W30" s="36">
         <v>8.0376015129602845</v>
       </c>
-      <c r="X30" s="183">
+      <c r="X30" s="140">
         <v>14.091366844843542</v>
       </c>
       <c r="Y30" s="37">
@@ -17672,17 +17672,17 @@
         <f>B30-V30</f>
         <v>18554</v>
       </c>
-      <c r="W31" s="184">
+      <c r="W31" s="141">
         <v>17978</v>
       </c>
-      <c r="X31" s="184"/>
-      <c r="Y31" s="184">
+      <c r="X31" s="141"/>
+      <c r="Y31" s="141">
         <v>18570</v>
       </c>
-      <c r="Z31" s="184">
+      <c r="Z31" s="141">
         <v>18570</v>
       </c>
-      <c r="AA31" s="184">
+      <c r="AA31" s="141">
         <v>14468</v>
       </c>
     </row>
@@ -17741,17 +17741,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:I2"/>
     <mergeCell ref="J2:N2"/>
     <mergeCell ref="O2:S2"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:W3"/>
     <mergeCell ref="Y2:AA2"/>
     <mergeCell ref="X2:X3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17761,53 +17761,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED609BB-40F9-E14E-90CF-095AA6841FA5}">
   <dimension ref="A2:L89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S74" sqref="S74"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62:L89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.33203125" style="119" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="11.6640625" style="175" customWidth="1"/>
+    <col min="2" max="11" width="11.6640625" style="134" customWidth="1"/>
     <col min="12" max="12" width="10.83203125" style="125"/>
     <col min="13" max="16384" width="10.83203125" style="119"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12" s="125" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="177" t="s">
+      <c r="A2" s="136" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="137" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="178" t="s">
+      <c r="C2" s="137" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="178" t="s">
+      <c r="D2" s="137" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="178" t="s">
+      <c r="E2" s="137" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="178" t="s">
+      <c r="F2" s="137" t="s">
         <v>78</v>
       </c>
-      <c r="G2" s="178" t="s">
+      <c r="G2" s="137" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="178" t="s">
+      <c r="H2" s="137" t="s">
         <v>80</v>
       </c>
-      <c r="I2" s="178" t="s">
+      <c r="I2" s="137" t="s">
         <v>81</v>
       </c>
-      <c r="J2" s="178" t="s">
+      <c r="J2" s="137" t="s">
         <v>82</v>
       </c>
-      <c r="K2" s="178" t="s">
+      <c r="K2" s="137" t="s">
         <v>83</v>
       </c>
-      <c r="L2" s="179" t="s">
+      <c r="L2" s="138" t="s">
         <v>106</v>
       </c>
     </row>
@@ -17815,34 +17815,34 @@
       <c r="A3" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="176">
+      <c r="B3" s="135">
         <v>296.75472405563681</v>
       </c>
-      <c r="C3" s="176">
+      <c r="C3" s="135">
         <v>294.43293926793581</v>
       </c>
-      <c r="D3" s="176">
+      <c r="D3" s="135">
         <v>294.83932557833089</v>
       </c>
-      <c r="E3" s="176">
+      <c r="E3" s="135">
         <v>295.24397355783316</v>
       </c>
-      <c r="F3" s="176">
+      <c r="F3" s="135">
         <v>293.49822263543206</v>
       </c>
-      <c r="G3" s="176">
+      <c r="G3" s="135">
         <v>295.87192423133229</v>
       </c>
-      <c r="H3" s="176">
+      <c r="H3" s="135">
         <v>295.2371170424596</v>
       </c>
-      <c r="I3" s="176">
+      <c r="I3" s="135">
         <v>293.44594553440709</v>
       </c>
-      <c r="J3" s="176">
+      <c r="J3" s="135">
         <v>295.10827175695465</v>
       </c>
-      <c r="K3" s="176">
+      <c r="K3" s="135">
         <v>294.04664076134679</v>
       </c>
       <c r="L3" s="117">
@@ -17854,34 +17854,34 @@
       <c r="A4" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="176">
+      <c r="B4" s="135">
         <v>238.90363782738115</v>
       </c>
-      <c r="C4" s="176">
+      <c r="C4" s="135">
         <v>237.83807340773788</v>
       </c>
-      <c r="D4" s="176">
+      <c r="D4" s="135">
         <v>238.49567751488107</v>
       </c>
-      <c r="E4" s="176">
+      <c r="E4" s="135">
         <v>238.65046007440455</v>
       </c>
-      <c r="F4" s="176">
+      <c r="F4" s="135">
         <v>238.68848589285665</v>
       </c>
-      <c r="G4" s="176">
+      <c r="G4" s="135">
         <v>240.66332654761911</v>
       </c>
-      <c r="H4" s="176">
+      <c r="H4" s="135">
         <v>239.54926818452364</v>
       </c>
-      <c r="I4" s="176">
+      <c r="I4" s="135">
         <v>240.71293836309528</v>
       </c>
-      <c r="J4" s="176">
+      <c r="J4" s="135">
         <v>239.34383428571422</v>
       </c>
-      <c r="K4" s="176">
+      <c r="K4" s="135">
         <v>239.91664145833323</v>
       </c>
       <c r="L4" s="117">
@@ -17893,34 +17893,34 @@
       <c r="A5" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="176">
+      <c r="B5" s="135">
         <v>291.38887472868203</v>
       </c>
-      <c r="C5" s="176">
+      <c r="C5" s="135">
         <v>290.40934770025842</v>
       </c>
-      <c r="D5" s="176">
+      <c r="D5" s="135">
         <v>290.02373019379849</v>
       </c>
-      <c r="E5" s="176">
+      <c r="E5" s="135">
         <v>290.14259855297161</v>
       </c>
-      <c r="F5" s="176">
+      <c r="F5" s="135">
         <v>289.04395220930246</v>
       </c>
-      <c r="G5" s="176">
+      <c r="G5" s="135">
         <v>290.16618091731289</v>
       </c>
-      <c r="H5" s="176">
+      <c r="H5" s="135">
         <v>289.36815058139553</v>
       </c>
-      <c r="I5" s="176">
+      <c r="I5" s="135">
         <v>291.16642757105939</v>
       </c>
-      <c r="J5" s="176">
+      <c r="J5" s="135">
         <v>290.01430937984486</v>
       </c>
-      <c r="K5" s="176">
+      <c r="K5" s="135">
         <v>289.63045373384983</v>
       </c>
       <c r="L5" s="117">
@@ -17932,34 +17932,34 @@
       <c r="A6" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="176">
+      <c r="B6" s="135">
         <v>279.76976379888242</v>
       </c>
-      <c r="C6" s="176">
+      <c r="C6" s="135">
         <v>279.51932701117357</v>
       </c>
-      <c r="D6" s="176">
+      <c r="D6" s="135">
         <v>280.04012935754196</v>
       </c>
-      <c r="E6" s="176">
+      <c r="E6" s="135">
         <v>278.88531495810065</v>
       </c>
-      <c r="F6" s="176">
+      <c r="F6" s="135">
         <v>279.96333808659193</v>
       </c>
-      <c r="G6" s="176">
+      <c r="G6" s="135">
         <v>279.1696141061451</v>
       </c>
-      <c r="H6" s="176">
+      <c r="H6" s="135">
         <v>280.25513314245802</v>
       </c>
-      <c r="I6" s="176">
+      <c r="I6" s="135">
         <v>280.62568256983229</v>
       </c>
-      <c r="J6" s="176">
+      <c r="J6" s="135">
         <v>279.3971652793295</v>
       </c>
-      <c r="K6" s="176">
+      <c r="K6" s="135">
         <v>280.65005730446927</v>
       </c>
       <c r="L6" s="117">
@@ -17971,34 +17971,34 @@
       <c r="A7" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="176">
+      <c r="B7" s="135">
         <v>197.18910184842878</v>
       </c>
-      <c r="C7" s="176">
+      <c r="C7" s="135">
         <v>198.01294879852122</v>
       </c>
-      <c r="D7" s="176">
+      <c r="D7" s="135">
         <v>198.17529197781903</v>
       </c>
-      <c r="E7" s="176">
+      <c r="E7" s="135">
         <v>196.65264811460236</v>
       </c>
-      <c r="F7" s="176">
+      <c r="F7" s="135">
         <v>196.55546414048064</v>
       </c>
-      <c r="G7" s="176">
+      <c r="G7" s="135">
         <v>198.33705715341958</v>
       </c>
-      <c r="H7" s="176">
+      <c r="H7" s="135">
         <v>196.81148487985212</v>
       </c>
-      <c r="I7" s="176">
+      <c r="I7" s="135">
         <v>199.14106567467624</v>
       </c>
-      <c r="J7" s="176">
+      <c r="J7" s="135">
         <v>197.52044279112746</v>
       </c>
-      <c r="K7" s="176">
+      <c r="K7" s="135">
         <v>197.27264513863219</v>
       </c>
       <c r="L7" s="117">
@@ -18010,34 +18010,34 @@
       <c r="A8" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="176">
+      <c r="B8" s="135">
         <v>290.57722165591417</v>
       </c>
-      <c r="C8" s="176">
+      <c r="C8" s="135">
         <v>289.82648898924748</v>
       </c>
-      <c r="D8" s="176">
+      <c r="D8" s="135">
         <v>291.70102355913997</v>
       </c>
-      <c r="E8" s="176">
+      <c r="E8" s="135">
         <v>292.58093963440854</v>
       </c>
-      <c r="F8" s="176">
+      <c r="F8" s="135">
         <v>290.47471446236557</v>
       </c>
-      <c r="G8" s="176">
+      <c r="G8" s="135">
         <v>291.99668620430117</v>
       </c>
-      <c r="H8" s="176">
+      <c r="H8" s="135">
         <v>290.60225080645142</v>
       </c>
-      <c r="I8" s="176">
+      <c r="I8" s="135">
         <v>290.52926786021482</v>
       </c>
-      <c r="J8" s="176">
+      <c r="J8" s="135">
         <v>289.70978662365604</v>
       </c>
-      <c r="K8" s="176">
+      <c r="K8" s="135">
         <v>293.65273389247312</v>
       </c>
       <c r="L8" s="117">
@@ -18049,34 +18049,34 @@
       <c r="A9" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="176">
+      <c r="B9" s="135">
         <v>314.343713846154</v>
       </c>
-      <c r="C9" s="176">
+      <c r="C9" s="135">
         <v>314.00922010430304</v>
       </c>
-      <c r="D9" s="176">
+      <c r="D9" s="135">
         <v>313.29784547587968</v>
       </c>
-      <c r="E9" s="176">
+      <c r="E9" s="135">
         <v>314.22863451108213</v>
       </c>
-      <c r="F9" s="176">
+      <c r="F9" s="135">
         <v>313.9100337679273</v>
       </c>
-      <c r="G9" s="176">
+      <c r="G9" s="135">
         <v>315.06259001303783</v>
       </c>
-      <c r="H9" s="176">
+      <c r="H9" s="135">
         <v>314.649772464146</v>
       </c>
-      <c r="I9" s="176">
+      <c r="I9" s="135">
         <v>313.50330455019588</v>
       </c>
-      <c r="J9" s="176">
+      <c r="J9" s="135">
         <v>312.91865720990836</v>
       </c>
-      <c r="K9" s="176">
+      <c r="K9" s="135">
         <v>314.88664327249057</v>
       </c>
       <c r="L9" s="117">
@@ -18088,34 +18088,34 @@
       <c r="A10" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="176">
+      <c r="B10" s="135">
         <v>285.422011</v>
       </c>
-      <c r="C10" s="176">
+      <c r="C10" s="135">
         <v>284.8134645238099</v>
       </c>
-      <c r="D10" s="176">
+      <c r="D10" s="135">
         <v>286.00527809523794</v>
       </c>
-      <c r="E10" s="176">
+      <c r="E10" s="135">
         <v>286.43399941666695</v>
       </c>
-      <c r="F10" s="176">
+      <c r="F10" s="135">
         <v>286.79664670238105</v>
       </c>
-      <c r="G10" s="176">
+      <c r="G10" s="135">
         <v>286.839154857143</v>
       </c>
-      <c r="H10" s="176">
+      <c r="H10" s="135">
         <v>286.13603401190466</v>
       </c>
-      <c r="I10" s="176">
+      <c r="I10" s="135">
         <v>286.65958749999987</v>
       </c>
-      <c r="J10" s="176">
+      <c r="J10" s="135">
         <v>285.38824108333324</v>
       </c>
-      <c r="K10" s="176">
+      <c r="K10" s="135">
         <v>286.02559526190464</v>
       </c>
       <c r="L10" s="117">
@@ -18127,34 +18127,34 @@
       <c r="A11" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="176">
+      <c r="B11" s="135">
         <v>260.96957761755488</v>
       </c>
-      <c r="C11" s="176">
+      <c r="C11" s="135">
         <v>262.34659495297819</v>
       </c>
-      <c r="D11" s="176">
+      <c r="D11" s="135">
         <v>259.77928225705313</v>
       </c>
-      <c r="E11" s="176">
+      <c r="E11" s="135">
         <v>259.0958771473355</v>
       </c>
-      <c r="F11" s="176">
+      <c r="F11" s="135">
         <v>259.35618652037635</v>
       </c>
-      <c r="G11" s="176">
+      <c r="G11" s="135">
         <v>258.33871272727271</v>
       </c>
-      <c r="H11" s="176">
+      <c r="H11" s="135">
         <v>261.94404664576791</v>
       </c>
-      <c r="I11" s="176">
+      <c r="I11" s="135">
         <v>259.281907554859</v>
       </c>
-      <c r="J11" s="176">
+      <c r="J11" s="135">
         <v>260.59016172413806</v>
       </c>
-      <c r="K11" s="176">
+      <c r="K11" s="135">
         <v>260.61776018808763</v>
       </c>
       <c r="L11" s="117">
@@ -18166,34 +18166,34 @@
       <c r="A12" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="176">
+      <c r="B12" s="135">
         <v>281.94479087484842</v>
       </c>
-      <c r="C12" s="176">
+      <c r="C12" s="135">
         <v>281.73874936816503</v>
       </c>
-      <c r="D12" s="176">
+      <c r="D12" s="135">
         <v>283.83826822600241</v>
       </c>
-      <c r="E12" s="176">
+      <c r="E12" s="135">
         <v>281.70546260024275</v>
       </c>
-      <c r="F12" s="176">
+      <c r="F12" s="135">
         <v>283.61918545565015</v>
       </c>
-      <c r="G12" s="176">
+      <c r="G12" s="135">
         <v>282.84329390036442</v>
       </c>
-      <c r="H12" s="176">
+      <c r="H12" s="135">
         <v>282.08921026731474</v>
       </c>
-      <c r="I12" s="176">
+      <c r="I12" s="135">
         <v>283.16829269744846</v>
       </c>
-      <c r="J12" s="176">
+      <c r="J12" s="135">
         <v>282.73690927095959</v>
       </c>
-      <c r="K12" s="176">
+      <c r="K12" s="135">
         <v>283.67673832320776</v>
       </c>
       <c r="L12" s="117">
@@ -18205,34 +18205,34 @@
       <c r="A13" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="176">
+      <c r="B13" s="135">
         <v>266.74943665300515</v>
       </c>
-      <c r="C13" s="176">
+      <c r="C13" s="135">
         <v>268.73828099726774</v>
       </c>
-      <c r="D13" s="176">
+      <c r="D13" s="135">
         <v>269.10800818306006</v>
       </c>
-      <c r="E13" s="176">
+      <c r="E13" s="135">
         <v>267.67998363387971</v>
       </c>
-      <c r="F13" s="176">
+      <c r="F13" s="135">
         <v>266.61732200819671</v>
       </c>
-      <c r="G13" s="176">
+      <c r="G13" s="135">
         <v>266.28822289617443</v>
       </c>
-      <c r="H13" s="176">
+      <c r="H13" s="135">
         <v>267.0925932923497</v>
       </c>
-      <c r="I13" s="176">
+      <c r="I13" s="135">
         <v>268.78654504098398</v>
       </c>
-      <c r="J13" s="176">
+      <c r="J13" s="135">
         <v>267.70075896174842</v>
       </c>
-      <c r="K13" s="176">
+      <c r="K13" s="135">
         <v>268.50915717213127</v>
       </c>
       <c r="L13" s="117">
@@ -18244,34 +18244,34 @@
       <c r="A14" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="176">
+      <c r="B14" s="135">
         <v>263.53828404255307</v>
       </c>
-      <c r="C14" s="176">
+      <c r="C14" s="135">
         <v>264.93756585106365</v>
       </c>
-      <c r="D14" s="176">
+      <c r="D14" s="135">
         <v>264.41614837765928</v>
       </c>
-      <c r="E14" s="176">
+      <c r="E14" s="135">
         <v>262.60221898936163</v>
       </c>
-      <c r="F14" s="176">
+      <c r="F14" s="135">
         <v>262.24229061170223</v>
       </c>
-      <c r="G14" s="176">
+      <c r="G14" s="135">
         <v>263.6142377925533</v>
       </c>
-      <c r="H14" s="176">
+      <c r="H14" s="135">
         <v>262.59849574468086</v>
       </c>
-      <c r="I14" s="176">
+      <c r="I14" s="135">
         <v>263.96998787234031</v>
       </c>
-      <c r="J14" s="176">
+      <c r="J14" s="135">
         <v>263.42315755319157</v>
       </c>
-      <c r="K14" s="176">
+      <c r="K14" s="135">
         <v>265.2861626063833</v>
       </c>
       <c r="L14" s="117">
@@ -18283,34 +18283,34 @@
       <c r="A15" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="176">
+      <c r="B15" s="135">
         <v>311.63267999999982</v>
       </c>
-      <c r="C15" s="176">
+      <c r="C15" s="135">
         <v>310.27198952592619</v>
       </c>
-      <c r="D15" s="176">
+      <c r="D15" s="135">
         <v>312.64618204444469</v>
       </c>
-      <c r="E15" s="176">
+      <c r="E15" s="135">
         <v>309.43424749629628</v>
       </c>
-      <c r="F15" s="176">
+      <c r="F15" s="135">
         <v>311.6281540296298</v>
       </c>
-      <c r="G15" s="176">
+      <c r="G15" s="135">
         <v>312.04363973333312</v>
       </c>
-      <c r="H15" s="176">
+      <c r="H15" s="135">
         <v>311.46476776296328</v>
       </c>
-      <c r="I15" s="176">
+      <c r="I15" s="135">
         <v>313.09520131851821</v>
       </c>
-      <c r="J15" s="176">
+      <c r="J15" s="135">
         <v>313.17810013333326</v>
       </c>
-      <c r="K15" s="176">
+      <c r="K15" s="135">
         <v>311.8536872148149</v>
       </c>
       <c r="L15" s="117">
@@ -18322,34 +18322,34 @@
       <c r="A16" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="176">
+      <c r="B16" s="135">
         <v>253.98390546004825</v>
       </c>
-      <c r="C16" s="176">
+      <c r="C16" s="135">
         <v>254.17576225181631</v>
       </c>
-      <c r="D16" s="176">
+      <c r="D16" s="135">
         <v>253.36108887409188</v>
       </c>
-      <c r="E16" s="176">
+      <c r="E16" s="135">
         <v>254.92760259079921</v>
       </c>
-      <c r="F16" s="176">
+      <c r="F16" s="135">
         <v>254.82938533898289</v>
       </c>
-      <c r="G16" s="176">
+      <c r="G16" s="135">
         <v>254.24087693704618</v>
       </c>
-      <c r="H16" s="176">
+      <c r="H16" s="135">
         <v>254.58418976997595</v>
       </c>
-      <c r="I16" s="176">
+      <c r="I16" s="135">
         <v>254.16771004842622</v>
       </c>
-      <c r="J16" s="176">
+      <c r="J16" s="135">
         <v>254.3605204358349</v>
       </c>
-      <c r="K16" s="176">
+      <c r="K16" s="135">
         <v>252.41255434624685</v>
       </c>
       <c r="L16" s="117">
@@ -18361,34 +18361,34 @@
       <c r="A17" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="176">
+      <c r="B17" s="135">
         <v>283.1916304130807</v>
       </c>
-      <c r="C17" s="176">
+      <c r="C17" s="135">
         <v>282.85371118760764</v>
       </c>
-      <c r="D17" s="176">
+      <c r="D17" s="135">
         <v>283.02047328743566</v>
       </c>
-      <c r="E17" s="176">
+      <c r="E17" s="135">
         <v>283.41458729776218</v>
       </c>
-      <c r="F17" s="176">
+      <c r="F17" s="135">
         <v>285.06822110154917</v>
       </c>
-      <c r="G17" s="176">
+      <c r="G17" s="135">
         <v>282.99371414802067</v>
       </c>
-      <c r="H17" s="176">
+      <c r="H17" s="135">
         <v>283.43830697074026</v>
       </c>
-      <c r="I17" s="176">
+      <c r="I17" s="135">
         <v>283.73152117039604</v>
       </c>
-      <c r="J17" s="176">
+      <c r="J17" s="135">
         <v>284.06068080895045</v>
       </c>
-      <c r="K17" s="176">
+      <c r="K17" s="135">
         <v>283.97064368330473</v>
       </c>
       <c r="L17" s="117">
@@ -18400,34 +18400,34 @@
       <c r="A18" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="176">
+      <c r="B18" s="135">
         <v>234.05452661490691</v>
       </c>
-      <c r="C18" s="176">
+      <c r="C18" s="135">
         <v>233.57516257763973</v>
       </c>
-      <c r="D18" s="176">
+      <c r="D18" s="135">
         <v>235.40750886645952</v>
       </c>
-      <c r="E18" s="176">
+      <c r="E18" s="135">
         <v>234.48224020186316</v>
       </c>
-      <c r="F18" s="176">
+      <c r="F18" s="135">
         <v>232.25973523291958</v>
       </c>
-      <c r="G18" s="176">
+      <c r="G18" s="135">
         <v>233.83631795031044</v>
       </c>
-      <c r="H18" s="176">
+      <c r="H18" s="135">
         <v>234.4722367080744</v>
       </c>
-      <c r="I18" s="176">
+      <c r="I18" s="135">
         <v>233.67048631987569</v>
       </c>
-      <c r="J18" s="176">
+      <c r="J18" s="135">
         <v>233.40801947204946</v>
       </c>
-      <c r="K18" s="176">
+      <c r="K18" s="135">
         <v>234.52144391304356</v>
       </c>
       <c r="L18" s="117">
@@ -18439,34 +18439,34 @@
       <c r="A19" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="176">
+      <c r="B19" s="135">
         <v>305.24933912106127</v>
       </c>
-      <c r="C19" s="176">
+      <c r="C19" s="135">
         <v>304.2042471973466</v>
       </c>
-      <c r="D19" s="176">
+      <c r="D19" s="135">
         <v>303.900484278607</v>
       </c>
-      <c r="E19" s="176">
+      <c r="E19" s="135">
         <v>303.89909510779455</v>
       </c>
-      <c r="F19" s="176">
+      <c r="F19" s="135">
         <v>305.32627636815897</v>
       </c>
-      <c r="G19" s="176">
+      <c r="G19" s="135">
         <v>306.68867882255381</v>
       </c>
-      <c r="H19" s="176">
+      <c r="H19" s="135">
         <v>303.4854100995023</v>
       </c>
-      <c r="I19" s="176">
+      <c r="I19" s="135">
         <v>304.30803852404659</v>
       </c>
-      <c r="J19" s="176">
+      <c r="J19" s="135">
         <v>305.89937334991708</v>
       </c>
-      <c r="K19" s="176">
+      <c r="K19" s="135">
         <v>304.41005149253726</v>
       </c>
       <c r="L19" s="117">
@@ -18478,34 +18478,34 @@
       <c r="A20" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="176">
+      <c r="B20" s="135">
         <v>291.27936145658265</v>
       </c>
-      <c r="C20" s="176">
+      <c r="C20" s="135">
         <v>290.64327264705884</v>
       </c>
-      <c r="D20" s="176">
+      <c r="D20" s="135">
         <v>290.68908184873987</v>
       </c>
-      <c r="E20" s="176">
+      <c r="E20" s="135">
         <v>290.06373805322158</v>
       </c>
-      <c r="F20" s="176">
+      <c r="F20" s="135">
         <v>291.66717508403343</v>
       </c>
-      <c r="G20" s="176">
+      <c r="G20" s="135">
         <v>291.36304229691865</v>
       </c>
-      <c r="H20" s="176">
+      <c r="H20" s="135">
         <v>291.18015200280121</v>
       </c>
-      <c r="I20" s="176">
+      <c r="I20" s="135">
         <v>292.63338788515421</v>
       </c>
-      <c r="J20" s="176">
+      <c r="J20" s="135">
         <v>290.84886911764715</v>
       </c>
-      <c r="K20" s="176">
+      <c r="K20" s="135">
         <v>291.76502417366976</v>
       </c>
       <c r="L20" s="117">
@@ -18517,34 +18517,34 @@
       <c r="A21" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="176">
+      <c r="B21" s="135">
         <v>296.58550001349488</v>
       </c>
-      <c r="C21" s="176">
+      <c r="C21" s="135">
         <v>294.68671107962194</v>
       </c>
-      <c r="D21" s="176">
+      <c r="D21" s="135">
         <v>296.24001527665325</v>
       </c>
-      <c r="E21" s="176">
+      <c r="E21" s="135">
         <v>294.72669107962241</v>
       </c>
-      <c r="F21" s="176">
+      <c r="F21" s="135">
         <v>293.58707800269923</v>
       </c>
-      <c r="G21" s="176">
+      <c r="G21" s="135">
         <v>294.06217711201106</v>
       </c>
-      <c r="H21" s="176">
+      <c r="H21" s="135">
         <v>294.84262190283368</v>
       </c>
-      <c r="I21" s="176">
+      <c r="I21" s="135">
         <v>295.19708080971645</v>
       </c>
-      <c r="J21" s="176">
+      <c r="J21" s="135">
         <v>294.56944430499323</v>
       </c>
-      <c r="K21" s="176">
+      <c r="K21" s="135">
         <v>294.55692793522275</v>
       </c>
       <c r="L21" s="117">
@@ -18556,34 +18556,34 @@
       <c r="A22" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="176">
+      <c r="B22" s="135">
         <v>283.00967389871425</v>
       </c>
-      <c r="C22" s="176">
+      <c r="C22" s="135">
         <v>282.41261197749162</v>
       </c>
-      <c r="D22" s="176">
+      <c r="D22" s="135">
         <v>283.1441678054664</v>
       </c>
-      <c r="E22" s="176">
+      <c r="E22" s="135">
         <v>281.78492054662354</v>
       </c>
-      <c r="F22" s="176">
+      <c r="F22" s="135">
         <v>282.2345926848871</v>
       </c>
-      <c r="G22" s="176">
+      <c r="G22" s="135">
         <v>282.08786774919633</v>
       </c>
-      <c r="H22" s="176">
+      <c r="H22" s="135">
         <v>283.52862908360112</v>
       </c>
-      <c r="I22" s="176">
+      <c r="I22" s="135">
         <v>282.39719124598054</v>
       </c>
-      <c r="J22" s="176">
+      <c r="J22" s="135">
         <v>283.74861263665622</v>
       </c>
-      <c r="K22" s="176">
+      <c r="K22" s="135">
         <v>284.1257496382641</v>
       </c>
       <c r="L22" s="117">
@@ -18595,34 +18595,34 @@
       <c r="A23" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="176">
+      <c r="B23" s="135">
         <v>282.76371662365585</v>
       </c>
-      <c r="C23" s="176">
+      <c r="C23" s="135">
         <v>284.31944513978476</v>
       </c>
-      <c r="D23" s="176">
+      <c r="D23" s="135">
         <v>283.61692982795699</v>
       </c>
-      <c r="E23" s="176">
+      <c r="E23" s="135">
         <v>283.17946563440853</v>
       </c>
-      <c r="F23" s="176">
+      <c r="F23" s="135">
         <v>286.45186791397873</v>
       </c>
-      <c r="G23" s="176">
+      <c r="G23" s="135">
         <v>285.49098146236588</v>
       </c>
-      <c r="H23" s="176">
+      <c r="H23" s="135">
         <v>285.12638404301055</v>
       </c>
-      <c r="I23" s="176">
+      <c r="I23" s="135">
         <v>284.04101701075246</v>
       </c>
-      <c r="J23" s="176">
+      <c r="J23" s="135">
         <v>283.52536892473131</v>
       </c>
-      <c r="K23" s="176">
+      <c r="K23" s="135">
         <v>284.59621522580682</v>
       </c>
       <c r="L23" s="117">
@@ -18634,34 +18634,34 @@
       <c r="A24" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="176">
+      <c r="B24" s="135">
         <v>284.68077170616158</v>
       </c>
-      <c r="C24" s="176">
+      <c r="C24" s="135">
         <v>284.69971545023708</v>
       </c>
-      <c r="D24" s="176">
+      <c r="D24" s="135">
         <v>285.58001513428115</v>
       </c>
-      <c r="E24" s="176">
+      <c r="E24" s="135">
         <v>286.13517175355457</v>
       </c>
-      <c r="F24" s="176">
+      <c r="F24" s="135">
         <v>285.32542559241716</v>
       </c>
-      <c r="G24" s="176">
+      <c r="G24" s="135">
         <v>285.60178123222732</v>
       </c>
-      <c r="H24" s="176">
+      <c r="H24" s="135">
         <v>285.15016589257527</v>
       </c>
-      <c r="I24" s="176">
+      <c r="I24" s="135">
         <v>286.75547818325464</v>
       </c>
-      <c r="J24" s="176">
+      <c r="J24" s="135">
         <v>285.28486235387038</v>
       </c>
-      <c r="K24" s="176">
+      <c r="K24" s="135">
         <v>285.90850684044199</v>
       </c>
       <c r="L24" s="117">
@@ -18673,34 +18673,34 @@
       <c r="A25" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="176">
+      <c r="B25" s="135">
         <v>268.61554749552778</v>
       </c>
-      <c r="C25" s="176">
+      <c r="C25" s="135">
         <v>269.16452762075147</v>
       </c>
-      <c r="D25" s="176">
+      <c r="D25" s="135">
         <v>269.80162869409645</v>
       </c>
-      <c r="E25" s="176">
+      <c r="E25" s="135">
         <v>269.45174028622557</v>
       </c>
-      <c r="F25" s="176">
+      <c r="F25" s="135">
         <v>269.41947654740585</v>
       </c>
-      <c r="G25" s="176">
+      <c r="G25" s="135">
         <v>270.31456026833627</v>
       </c>
-      <c r="H25" s="176">
+      <c r="H25" s="135">
         <v>270.63671516994651</v>
       </c>
-      <c r="I25" s="176">
+      <c r="I25" s="135">
         <v>270.62924679785311</v>
       </c>
-      <c r="J25" s="176">
+      <c r="J25" s="135">
         <v>268.16253588550978</v>
       </c>
-      <c r="K25" s="176">
+      <c r="K25" s="135">
         <v>270.36923484794261</v>
       </c>
       <c r="L25" s="117">
@@ -18712,34 +18712,34 @@
       <c r="A26" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="176">
+      <c r="B26" s="135">
         <v>289.61517838942302</v>
       </c>
-      <c r="C26" s="176">
+      <c r="C26" s="135">
         <v>290.62440558894252</v>
       </c>
-      <c r="D26" s="176">
+      <c r="D26" s="135">
         <v>291.06507126201939</v>
       </c>
-      <c r="E26" s="176">
+      <c r="E26" s="135">
         <v>290.03826722355785</v>
       </c>
-      <c r="F26" s="176">
+      <c r="F26" s="135">
         <v>291.17920374999983</v>
       </c>
-      <c r="G26" s="176">
+      <c r="G26" s="135">
         <v>291.21642798076903</v>
       </c>
-      <c r="H26" s="176">
+      <c r="H26" s="135">
         <v>289.83871038461524</v>
       </c>
-      <c r="I26" s="176">
+      <c r="I26" s="135">
         <v>290.70996292067292</v>
       </c>
-      <c r="J26" s="176">
+      <c r="J26" s="135">
         <v>292.05599772836553</v>
       </c>
-      <c r="K26" s="176">
+      <c r="K26" s="135">
         <v>290.82062020432699</v>
       </c>
       <c r="L26" s="117">
@@ -18751,34 +18751,34 @@
       <c r="A27" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="176">
+      <c r="B27" s="135">
         <v>266.56323911315002</v>
       </c>
-      <c r="C27" s="176">
+      <c r="C27" s="135">
         <v>264.08859975535177</v>
       </c>
-      <c r="D27" s="176">
+      <c r="D27" s="135">
         <v>264.31716093272172</v>
       </c>
-      <c r="E27" s="176">
+      <c r="E27" s="135">
         <v>265.52327194189587</v>
       </c>
-      <c r="F27" s="176">
+      <c r="F27" s="135">
         <v>264.24823922018345</v>
       </c>
-      <c r="G27" s="176">
+      <c r="G27" s="135">
         <v>264.1820573394499</v>
       </c>
-      <c r="H27" s="176">
+      <c r="H27" s="135">
         <v>263.95241183486269</v>
       </c>
-      <c r="I27" s="176">
+      <c r="I27" s="135">
         <v>265.86137131498492</v>
       </c>
-      <c r="J27" s="176">
+      <c r="J27" s="135">
         <v>265.83473337920486</v>
       </c>
-      <c r="K27" s="176">
+      <c r="K27" s="135">
         <v>265.11907051987799</v>
       </c>
       <c r="L27" s="117">
@@ -18790,34 +18790,34 @@
       <c r="A28" s="119" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="176">
+      <c r="B28" s="135">
         <v>291.2313633197391</v>
       </c>
-      <c r="C28" s="176">
+      <c r="C28" s="135">
         <v>291.76371436378429</v>
       </c>
-      <c r="D28" s="176">
+      <c r="D28" s="135">
         <v>289.34670610929794</v>
       </c>
-      <c r="E28" s="176">
+      <c r="E28" s="135">
         <v>290.91690787928201</v>
       </c>
-      <c r="F28" s="176">
+      <c r="F28" s="135">
         <v>288.96732399673732</v>
       </c>
-      <c r="G28" s="176">
+      <c r="G28" s="135">
         <v>289.96276452691671</v>
       </c>
-      <c r="H28" s="176">
+      <c r="H28" s="135">
         <v>291.63333627243071</v>
       </c>
-      <c r="I28" s="176">
+      <c r="I28" s="135">
         <v>290.13965085644446</v>
       </c>
-      <c r="J28" s="176">
+      <c r="J28" s="135">
         <v>291.10031849918477</v>
       </c>
-      <c r="K28" s="176">
+      <c r="K28" s="135">
         <v>288.75645955138691</v>
       </c>
       <c r="L28" s="117">
@@ -18829,34 +18829,34 @@
       <c r="A29" s="119" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="176">
+      <c r="B29" s="135">
         <v>279.48071342918638</v>
       </c>
-      <c r="C29" s="176">
+      <c r="C29" s="135">
         <v>279.17964775767229</v>
       </c>
-      <c r="D29" s="176">
+      <c r="D29" s="135">
         <v>279.52002434571716</v>
       </c>
-      <c r="E29" s="176">
+      <c r="E29" s="135">
         <v>279.21441594184211</v>
       </c>
-      <c r="F29" s="176">
+      <c r="F29" s="135">
         <v>279.15595126440485</v>
       </c>
-      <c r="G29" s="176">
+      <c r="G29" s="135">
         <v>279.56921394830431</v>
       </c>
-      <c r="H29" s="176">
+      <c r="H29" s="135">
         <v>279.46311703338654</v>
       </c>
-      <c r="I29" s="176">
+      <c r="I29" s="135">
         <v>279.74378058319923</v>
       </c>
-      <c r="J29" s="176">
+      <c r="J29" s="135">
         <v>279.48639145180334</v>
       </c>
-      <c r="K29" s="176">
+      <c r="K29" s="135">
         <v>279.70429795422734</v>
       </c>
       <c r="L29" s="117">
@@ -18865,40 +18865,40 @@
       </c>
     </row>
     <row r="32" spans="1:12" s="125" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A32" s="179" t="s">
+      <c r="A32" s="138" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="178" t="s">
+      <c r="B32" s="137" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="178" t="s">
+      <c r="C32" s="137" t="s">
         <v>87</v>
       </c>
-      <c r="D32" s="178" t="s">
+      <c r="D32" s="137" t="s">
         <v>88</v>
       </c>
-      <c r="E32" s="178" t="s">
+      <c r="E32" s="137" t="s">
         <v>89</v>
       </c>
-      <c r="F32" s="178" t="s">
+      <c r="F32" s="137" t="s">
         <v>90</v>
       </c>
-      <c r="G32" s="178" t="s">
+      <c r="G32" s="137" t="s">
         <v>91</v>
       </c>
-      <c r="H32" s="178" t="s">
+      <c r="H32" s="137" t="s">
         <v>92</v>
       </c>
-      <c r="I32" s="178" t="s">
+      <c r="I32" s="137" t="s">
         <v>93</v>
       </c>
-      <c r="J32" s="178" t="s">
+      <c r="J32" s="137" t="s">
         <v>94</v>
       </c>
-      <c r="K32" s="178" t="s">
+      <c r="K32" s="137" t="s">
         <v>95</v>
       </c>
-      <c r="L32" s="179" t="s">
+      <c r="L32" s="138" t="s">
         <v>106</v>
       </c>
     </row>
@@ -18906,34 +18906,34 @@
       <c r="A33" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="176">
+      <c r="B33" s="135">
         <v>299.6346266471453</v>
       </c>
-      <c r="C33" s="176">
+      <c r="C33" s="135">
         <v>297.94586489019002</v>
       </c>
-      <c r="D33" s="176">
+      <c r="D33" s="135">
         <v>298.41018081991211</v>
       </c>
-      <c r="E33" s="176">
+      <c r="E33" s="135">
         <v>297.77191834553469</v>
       </c>
-      <c r="F33" s="176">
+      <c r="F33" s="135">
         <v>298.02127426061452</v>
       </c>
-      <c r="G33" s="176">
+      <c r="G33" s="135">
         <v>299.04764941434831</v>
       </c>
-      <c r="H33" s="176">
+      <c r="H33" s="135">
         <v>298.31774048316305</v>
       </c>
-      <c r="I33" s="176">
+      <c r="I33" s="135">
         <v>300.53453847730583</v>
       </c>
-      <c r="J33" s="176">
+      <c r="J33" s="135">
         <v>298.39420647144954</v>
       </c>
-      <c r="K33" s="176">
+      <c r="K33" s="135">
         <v>297.13588531478763</v>
       </c>
       <c r="L33" s="117">
@@ -18945,34 +18945,34 @@
       <c r="A34" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="176">
+      <c r="B34" s="135">
         <v>226.63456651785717</v>
       </c>
-      <c r="C34" s="176">
+      <c r="C34" s="135">
         <v>225.10867162202399</v>
       </c>
-      <c r="D34" s="176">
+      <c r="D34" s="135">
         <v>227.83961438988086</v>
       </c>
-      <c r="E34" s="176">
+      <c r="E34" s="135">
         <v>225.96720011904759</v>
       </c>
-      <c r="F34" s="176">
+      <c r="F34" s="135">
         <v>227.32829703869044</v>
       </c>
-      <c r="G34" s="176">
+      <c r="G34" s="135">
         <v>224.77899150297648</v>
       </c>
-      <c r="H34" s="176">
+      <c r="H34" s="135">
         <v>228.02163556547617</v>
       </c>
-      <c r="I34" s="176">
+      <c r="I34" s="135">
         <v>228.47551395833347</v>
       </c>
-      <c r="J34" s="176">
+      <c r="J34" s="135">
         <v>226.51118019345219</v>
       </c>
-      <c r="K34" s="176">
+      <c r="K34" s="135">
         <v>226.79027282738076</v>
       </c>
       <c r="L34" s="117">
@@ -18984,34 +18984,34 @@
       <c r="A35" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="176">
+      <c r="B35" s="135">
         <v>291.94298970284228</v>
       </c>
-      <c r="C35" s="176">
+      <c r="C35" s="135">
         <v>292.05183687338456</v>
       </c>
-      <c r="D35" s="176">
+      <c r="D35" s="135">
         <v>291.73904930232555</v>
       </c>
-      <c r="E35" s="176">
+      <c r="E35" s="135">
         <v>293.56581328165402</v>
       </c>
-      <c r="F35" s="176">
+      <c r="F35" s="135">
         <v>291.53268209302337</v>
       </c>
-      <c r="G35" s="176">
+      <c r="G35" s="135">
         <v>292.68664811369513</v>
       </c>
-      <c r="H35" s="176">
+      <c r="H35" s="135">
         <v>291.10656883720941</v>
       </c>
-      <c r="I35" s="176">
+      <c r="I35" s="135">
         <v>293.29109865633103</v>
       </c>
-      <c r="J35" s="176">
+      <c r="J35" s="135">
         <v>292.17566423772632</v>
       </c>
-      <c r="K35" s="176">
+      <c r="K35" s="135">
         <v>292.15496990956063</v>
       </c>
       <c r="L35" s="117">
@@ -19023,34 +19023,34 @@
       <c r="A36" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="176">
+      <c r="B36" s="135">
         <v>284.77028523742985</v>
       </c>
-      <c r="C36" s="176">
+      <c r="C36" s="135">
         <v>286.60085819832369</v>
       </c>
-      <c r="D36" s="176">
+      <c r="D36" s="135">
         <v>285.64234678770953</v>
       </c>
-      <c r="E36" s="176">
+      <c r="E36" s="135">
         <v>285.18494141061399</v>
       </c>
-      <c r="F36" s="176">
+      <c r="F36" s="135">
         <v>287.37553744413412</v>
       </c>
-      <c r="G36" s="176">
+      <c r="G36" s="135">
         <v>285.96296382681533</v>
       </c>
-      <c r="H36" s="176">
+      <c r="H36" s="135">
         <v>285.57906579608954</v>
       </c>
-      <c r="I36" s="176">
+      <c r="I36" s="135">
         <v>286.14700215083809</v>
       </c>
-      <c r="J36" s="176">
+      <c r="J36" s="135">
         <v>286.30021652234649</v>
       </c>
-      <c r="K36" s="176">
+      <c r="K36" s="135">
         <v>284.73442844972095</v>
       </c>
       <c r="L36" s="117">
@@ -19062,34 +19062,34 @@
       <c r="A37" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="176">
+      <c r="B37" s="135">
         <v>190.87512767097959</v>
       </c>
-      <c r="C37" s="176">
+      <c r="C37" s="135">
         <v>188.65847855822551</v>
       </c>
-      <c r="D37" s="176">
+      <c r="D37" s="135">
         <v>192.78767552680233</v>
       </c>
-      <c r="E37" s="176">
+      <c r="E37" s="135">
         <v>189.05601277264313</v>
       </c>
-      <c r="F37" s="176">
+      <c r="F37" s="135">
         <v>188.71249530499088</v>
       </c>
-      <c r="G37" s="176">
+      <c r="G37" s="135">
         <v>191.03759181146023</v>
       </c>
-      <c r="H37" s="176">
+      <c r="H37" s="135">
         <v>188.43205992606289</v>
       </c>
-      <c r="I37" s="176">
+      <c r="I37" s="135">
         <v>191.44383099815153</v>
       </c>
-      <c r="J37" s="176">
+      <c r="J37" s="135">
         <v>189.76008691312376</v>
       </c>
-      <c r="K37" s="176">
+      <c r="K37" s="135">
         <v>188.87226133086872</v>
       </c>
       <c r="L37" s="117">
@@ -19101,34 +19101,34 @@
       <c r="A38" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="176">
+      <c r="B38" s="135">
         <v>287.16060133333337</v>
       </c>
-      <c r="C38" s="176">
+      <c r="C38" s="135">
         <v>285.57991967741896</v>
       </c>
-      <c r="D38" s="176">
+      <c r="D38" s="135">
         <v>290.46928830107527</v>
       </c>
-      <c r="E38" s="176">
+      <c r="E38" s="135">
         <v>288.31314955913984</v>
       </c>
-      <c r="F38" s="176">
+      <c r="F38" s="135">
         <v>288.83908170967726</v>
       </c>
-      <c r="G38" s="176">
+      <c r="G38" s="135">
         <v>288.98519690322593</v>
       </c>
-      <c r="H38" s="176">
+      <c r="H38" s="135">
         <v>287.53521254838716</v>
       </c>
-      <c r="I38" s="176">
+      <c r="I38" s="135">
         <v>287.77693672043017</v>
       </c>
-      <c r="J38" s="176">
+      <c r="J38" s="135">
         <v>286.8849083010756</v>
       </c>
-      <c r="K38" s="176">
+      <c r="K38" s="135">
         <v>288.95940021505379</v>
       </c>
       <c r="L38" s="117">
@@ -19140,34 +19140,34 @@
       <c r="A39" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="176">
+      <c r="B39" s="135">
         <v>309.18884911342889</v>
       </c>
-      <c r="C39" s="176">
+      <c r="C39" s="135">
         <v>309.00687578878745</v>
       </c>
-      <c r="D39" s="176">
+      <c r="D39" s="135">
         <v>307.18639104302451</v>
       </c>
-      <c r="E39" s="176">
+      <c r="E39" s="135">
         <v>309.05215817470662</v>
       </c>
-      <c r="F39" s="176">
+      <c r="F39" s="135">
         <v>308.53717649282947</v>
       </c>
-      <c r="G39" s="176">
+      <c r="G39" s="135">
         <v>310.03669325945202</v>
       </c>
-      <c r="H39" s="176">
+      <c r="H39" s="135">
         <v>307.88937138200771</v>
       </c>
-      <c r="I39" s="176">
+      <c r="I39" s="135">
         <v>309.37741169491517</v>
       </c>
-      <c r="J39" s="176">
+      <c r="J39" s="135">
         <v>311.11539847457641</v>
       </c>
-      <c r="K39" s="176">
+      <c r="K39" s="135">
         <v>310.36850949152546</v>
       </c>
       <c r="L39" s="117">
@@ -19179,34 +19179,34 @@
       <c r="A40" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="176">
+      <c r="B40" s="135">
         <v>279.89050098809543</v>
       </c>
-      <c r="C40" s="176">
+      <c r="C40" s="135">
         <v>279.24592458333325</v>
       </c>
-      <c r="D40" s="176">
+      <c r="D40" s="135">
         <v>278.93226835714285</v>
       </c>
-      <c r="E40" s="176">
+      <c r="E40" s="135">
         <v>279.03053889285712</v>
       </c>
-      <c r="F40" s="176">
+      <c r="F40" s="135">
         <v>280.90446804761916</v>
       </c>
-      <c r="G40" s="176">
+      <c r="G40" s="135">
         <v>281.04240961904804</v>
       </c>
-      <c r="H40" s="176">
+      <c r="H40" s="135">
         <v>280.69826240476186</v>
       </c>
-      <c r="I40" s="176">
+      <c r="I40" s="135">
         <v>279.87007263095222</v>
       </c>
-      <c r="J40" s="176">
+      <c r="J40" s="135">
         <v>279.96867963095207</v>
       </c>
-      <c r="K40" s="176">
+      <c r="K40" s="135">
         <v>279.58958261904746</v>
       </c>
       <c r="L40" s="117">
@@ -19218,34 +19218,34 @@
       <c r="A41" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="176">
+      <c r="B41" s="135">
         <v>264.03240943573638</v>
       </c>
-      <c r="C41" s="176">
+      <c r="C41" s="135">
         <v>265.04070197492155</v>
       </c>
-      <c r="D41" s="176">
+      <c r="D41" s="135">
         <v>265.05685445141046</v>
       </c>
-      <c r="E41" s="176">
+      <c r="E41" s="135">
         <v>265.2962635109717</v>
       </c>
-      <c r="F41" s="176">
+      <c r="F41" s="135">
         <v>263.64929630094065</v>
       </c>
-      <c r="G41" s="176">
+      <c r="G41" s="135">
         <v>262.60787971786834</v>
       </c>
-      <c r="H41" s="176">
+      <c r="H41" s="135">
         <v>266.65690316614433</v>
       </c>
-      <c r="I41" s="176">
+      <c r="I41" s="135">
         <v>263.49999404388728</v>
       </c>
-      <c r="J41" s="176">
+      <c r="J41" s="135">
         <v>264.13362564263321</v>
       </c>
-      <c r="K41" s="176">
+      <c r="K41" s="135">
         <v>262.26499341692789</v>
       </c>
       <c r="L41" s="117">
@@ -19257,34 +19257,34 @@
       <c r="A42" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="B42" s="176">
+      <c r="B42" s="135">
         <v>272.08576286755795</v>
       </c>
-      <c r="C42" s="176">
+      <c r="C42" s="135">
         <v>272.32981052247862</v>
       </c>
-      <c r="D42" s="176">
+      <c r="D42" s="135">
         <v>273.36440258809239</v>
       </c>
-      <c r="E42" s="176">
+      <c r="E42" s="135">
         <v>272.6956092102069</v>
       </c>
-      <c r="F42" s="176">
+      <c r="F42" s="135">
         <v>273.11411082624568</v>
       </c>
-      <c r="G42" s="176">
+      <c r="G42" s="135">
         <v>272.89928133657327</v>
       </c>
-      <c r="H42" s="176">
+      <c r="H42" s="135">
         <v>271.22167669501846</v>
       </c>
-      <c r="I42" s="176">
+      <c r="I42" s="135">
         <v>272.85136850546786</v>
       </c>
-      <c r="J42" s="176">
+      <c r="J42" s="135">
         <v>272.19071126366947</v>
       </c>
-      <c r="K42" s="176">
+      <c r="K42" s="135">
         <v>273.82123545565031</v>
       </c>
       <c r="L42" s="117">
@@ -19296,34 +19296,34 @@
       <c r="A43" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="176">
+      <c r="B43" s="135">
         <v>264.43146923497284</v>
       </c>
-      <c r="C43" s="176">
+      <c r="C43" s="135">
         <v>265.93094475409816</v>
       </c>
-      <c r="D43" s="176">
+      <c r="D43" s="135">
         <v>266.50589980874281</v>
       </c>
-      <c r="E43" s="176">
+      <c r="E43" s="135">
         <v>263.54671965846978</v>
       </c>
-      <c r="F43" s="176">
+      <c r="F43" s="135">
         <v>262.89874359289621</v>
       </c>
-      <c r="G43" s="176">
+      <c r="G43" s="135">
         <v>263.49164068306015</v>
       </c>
-      <c r="H43" s="176">
+      <c r="H43" s="135">
         <v>264.28923677595645</v>
       </c>
-      <c r="I43" s="176">
+      <c r="I43" s="135">
         <v>265.66162431693994</v>
       </c>
-      <c r="J43" s="176">
+      <c r="J43" s="135">
         <v>264.00063915300558</v>
       </c>
-      <c r="K43" s="176">
+      <c r="K43" s="135">
         <v>264.91474463114736</v>
       </c>
       <c r="L43" s="117">
@@ -19335,34 +19335,34 @@
       <c r="A44" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="176">
+      <c r="B44" s="135">
         <v>267.23010170212757</v>
       </c>
-      <c r="C44" s="176">
+      <c r="C44" s="135">
         <v>268.81076305851076</v>
       </c>
-      <c r="D44" s="176">
+      <c r="D44" s="135">
         <v>268.17354659574471</v>
       </c>
-      <c r="E44" s="176">
+      <c r="E44" s="135">
         <v>266.70453029255316</v>
       </c>
-      <c r="F44" s="176">
+      <c r="F44" s="135">
         <v>268.73154359042542</v>
       </c>
-      <c r="G44" s="176">
+      <c r="G44" s="135">
         <v>268.52918635638298</v>
       </c>
-      <c r="H44" s="176">
+      <c r="H44" s="135">
         <v>268.74690864361708</v>
       </c>
-      <c r="I44" s="176">
+      <c r="I44" s="135">
         <v>269.17915385638304</v>
       </c>
-      <c r="J44" s="176">
+      <c r="J44" s="135">
         <v>268.21924837765954</v>
       </c>
-      <c r="K44" s="176">
+      <c r="K44" s="135">
         <v>267.3959437499999</v>
       </c>
       <c r="L44" s="117">
@@ -19374,34 +19374,34 @@
       <c r="A45" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="176">
+      <c r="B45" s="135">
         <v>300.93652260740754</v>
       </c>
-      <c r="C45" s="176">
+      <c r="C45" s="135">
         <v>300.3225223851851</v>
       </c>
-      <c r="D45" s="176">
+      <c r="D45" s="135">
         <v>301.81102048888908</v>
       </c>
-      <c r="E45" s="176">
+      <c r="E45" s="135">
         <v>301.6906347851853</v>
       </c>
-      <c r="F45" s="176">
+      <c r="F45" s="135">
         <v>300.99926831111071</v>
       </c>
-      <c r="G45" s="176">
+      <c r="G45" s="135">
         <v>301.28603970370352</v>
       </c>
-      <c r="H45" s="176">
+      <c r="H45" s="135">
         <v>301.25571016296306</v>
       </c>
-      <c r="I45" s="176">
+      <c r="I45" s="135">
         <v>301.87762423703691</v>
       </c>
-      <c r="J45" s="176">
+      <c r="J45" s="135">
         <v>301.2669762962966</v>
       </c>
-      <c r="K45" s="176">
+      <c r="K45" s="135">
         <v>302.49443782222238</v>
       </c>
       <c r="L45" s="117">
@@ -19413,34 +19413,34 @@
       <c r="A46" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="B46" s="176">
+      <c r="B46" s="135">
         <v>250.00878726392293</v>
       </c>
-      <c r="C46" s="176">
+      <c r="C46" s="135">
         <v>251.13173960048448</v>
       </c>
-      <c r="D46" s="176">
+      <c r="D46" s="135">
         <v>250.39747433414038</v>
       </c>
-      <c r="E46" s="176">
+      <c r="E46" s="135">
         <v>249.60163768765136</v>
       </c>
-      <c r="F46" s="176">
+      <c r="F46" s="135">
         <v>249.33984939467297</v>
       </c>
-      <c r="G46" s="176">
+      <c r="G46" s="135">
         <v>250.15337058111373</v>
       </c>
-      <c r="H46" s="176">
+      <c r="H46" s="135">
         <v>250.04848857142849</v>
       </c>
-      <c r="I46" s="176">
+      <c r="I46" s="135">
         <v>249.67636210653762</v>
       </c>
-      <c r="J46" s="176">
+      <c r="J46" s="135">
         <v>251.45048812348688</v>
       </c>
-      <c r="K46" s="176">
+      <c r="K46" s="135">
         <v>250.39526696125915</v>
       </c>
       <c r="L46" s="117">
@@ -19452,34 +19452,34 @@
       <c r="A47" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="B47" s="176">
+      <c r="B47" s="135">
         <v>286.1497864888122</v>
       </c>
-      <c r="C47" s="176">
+      <c r="C47" s="135">
         <v>287.83834067125628</v>
       </c>
-      <c r="D47" s="176">
+      <c r="D47" s="135">
         <v>286.42765915662687</v>
       </c>
-      <c r="E47" s="176">
+      <c r="E47" s="135">
         <v>290.01463547332185</v>
       </c>
-      <c r="F47" s="176">
+      <c r="F47" s="135">
         <v>287.32150449225469</v>
       </c>
-      <c r="G47" s="176">
+      <c r="G47" s="135">
         <v>287.11587913941509</v>
       </c>
-      <c r="H47" s="176">
+      <c r="H47" s="135">
         <v>288.06020211703975</v>
       </c>
-      <c r="I47" s="176">
+      <c r="I47" s="135">
         <v>287.94319967297787</v>
       </c>
-      <c r="J47" s="176">
+      <c r="J47" s="135">
         <v>287.46065192771152</v>
       </c>
-      <c r="K47" s="176">
+      <c r="K47" s="135">
         <v>288.68645956970767</v>
       </c>
       <c r="L47" s="117">
@@ -19491,34 +19491,34 @@
       <c r="A48" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="B48" s="176">
+      <c r="B48" s="135">
         <v>223.43019332298135</v>
       </c>
-      <c r="C48" s="176">
+      <c r="C48" s="135">
         <v>222.83310118012429</v>
       </c>
-      <c r="D48" s="176">
+      <c r="D48" s="135">
         <v>222.67953877329211</v>
       </c>
-      <c r="E48" s="176">
+      <c r="E48" s="135">
         <v>223.2554962111798</v>
       </c>
-      <c r="F48" s="176">
+      <c r="F48" s="135">
         <v>223.10605153726715</v>
       </c>
-      <c r="G48" s="176">
+      <c r="G48" s="135">
         <v>224.55269526397481</v>
       </c>
-      <c r="H48" s="176">
+      <c r="H48" s="135">
         <v>223.84003326086969</v>
       </c>
-      <c r="I48" s="176">
+      <c r="I48" s="135">
         <v>222.35069344720509</v>
       </c>
-      <c r="J48" s="176">
+      <c r="J48" s="135">
         <v>224.01221906832293</v>
       </c>
-      <c r="K48" s="176">
+      <c r="K48" s="135">
         <v>222.22702374223658</v>
       </c>
       <c r="L48" s="117">
@@ -19530,34 +19530,34 @@
       <c r="A49" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="B49" s="176">
+      <c r="B49" s="135">
         <v>300.52072694859089</v>
       </c>
-      <c r="C49" s="176">
+      <c r="C49" s="135">
         <v>299.35140859038125</v>
       </c>
-      <c r="D49" s="176">
+      <c r="D49" s="135">
         <v>299.52560475953584</v>
       </c>
-      <c r="E49" s="176">
+      <c r="E49" s="135">
         <v>300.3494137810946</v>
       </c>
-      <c r="F49" s="176">
+      <c r="F49" s="135">
         <v>300.55934184079615</v>
       </c>
-      <c r="G49" s="176">
+      <c r="G49" s="135">
         <v>298.78957825870606</v>
       </c>
-      <c r="H49" s="176">
+      <c r="H49" s="135">
         <v>300.6721973300165</v>
       </c>
-      <c r="I49" s="176">
+      <c r="I49" s="135">
         <v>298.70272824212248</v>
       </c>
-      <c r="J49" s="176">
+      <c r="J49" s="135">
         <v>301.05460572139316</v>
       </c>
-      <c r="K49" s="176">
+      <c r="K49" s="135">
         <v>298.562206053068</v>
       </c>
       <c r="L49" s="117">
@@ -19569,34 +19569,34 @@
       <c r="A50" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="B50" s="176">
+      <c r="B50" s="135">
         <v>282.3303054621847</v>
       </c>
-      <c r="C50" s="176">
+      <c r="C50" s="135">
         <v>279.40383155462166</v>
       </c>
-      <c r="D50" s="176">
+      <c r="D50" s="135">
         <v>280.56024693277288</v>
       </c>
-      <c r="E50" s="176">
+      <c r="E50" s="135">
         <v>279.71232904761933</v>
       </c>
-      <c r="F50" s="176">
+      <c r="F50" s="135">
         <v>279.85460411764711</v>
       </c>
-      <c r="G50" s="176">
+      <c r="G50" s="135">
         <v>280.25621329131673</v>
       </c>
-      <c r="H50" s="176">
+      <c r="H50" s="135">
         <v>281.08298922969163</v>
       </c>
-      <c r="I50" s="176">
+      <c r="I50" s="135">
         <v>281.41292305322116</v>
       </c>
-      <c r="J50" s="176">
+      <c r="J50" s="135">
         <v>279.99789257703054</v>
       </c>
-      <c r="K50" s="176">
+      <c r="K50" s="135">
         <v>280.50162771708654</v>
       </c>
       <c r="L50" s="117">
@@ -19608,34 +19608,34 @@
       <c r="A51" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="B51" s="176">
+      <c r="B51" s="135">
         <v>295.44430700404877</v>
       </c>
-      <c r="C51" s="176">
+      <c r="C51" s="135">
         <v>292.56803116059365</v>
       </c>
-      <c r="D51" s="176">
+      <c r="D51" s="135">
         <v>294.55725937921704</v>
       </c>
-      <c r="E51" s="176">
+      <c r="E51" s="135">
         <v>293.89346534413033</v>
       </c>
-      <c r="F51" s="176">
+      <c r="F51" s="135">
         <v>293.36233550607307</v>
       </c>
-      <c r="G51" s="176">
+      <c r="G51" s="135">
         <v>294.42535906882586</v>
       </c>
-      <c r="H51" s="176">
+      <c r="H51" s="135">
         <v>292.03474477732772</v>
       </c>
-      <c r="I51" s="176">
+      <c r="I51" s="135">
         <v>293.13555268556019</v>
       </c>
-      <c r="J51" s="176">
+      <c r="J51" s="135">
         <v>293.63729551956823</v>
       </c>
-      <c r="K51" s="176">
+      <c r="K51" s="135">
         <v>294.35188369770577</v>
       </c>
       <c r="L51" s="117">
@@ -19647,34 +19647,34 @@
       <c r="A52" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="B52" s="176">
+      <c r="B52" s="135">
         <v>272.86781554662389</v>
       </c>
-      <c r="C52" s="176">
+      <c r="C52" s="135">
         <v>275.97410778135088</v>
       </c>
-      <c r="D52" s="176">
+      <c r="D52" s="135">
         <v>273.82236367363328</v>
       </c>
-      <c r="E52" s="176">
+      <c r="E52" s="135">
         <v>275.76939730707414</v>
       </c>
-      <c r="F52" s="176">
+      <c r="F52" s="135">
         <v>274.60025946141457</v>
       </c>
-      <c r="G52" s="176">
+      <c r="G52" s="135">
         <v>274.16777646302262</v>
       </c>
-      <c r="H52" s="176">
+      <c r="H52" s="135">
         <v>275.46369752411567</v>
       </c>
-      <c r="I52" s="176">
+      <c r="I52" s="135">
         <v>274.38706425241134</v>
       </c>
-      <c r="J52" s="176">
+      <c r="J52" s="135">
         <v>274.77914286977506</v>
       </c>
-      <c r="K52" s="176">
+      <c r="K52" s="135">
         <v>275.32941888263679</v>
       </c>
       <c r="L52" s="117">
@@ -19686,34 +19686,34 @@
       <c r="A53" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="B53" s="176">
+      <c r="B53" s="135">
         <v>280.5557572043009</v>
       </c>
-      <c r="C53" s="176">
+      <c r="C53" s="135">
         <v>280.97937384946226</v>
       </c>
-      <c r="D53" s="176">
+      <c r="D53" s="135">
         <v>280.60682131182807</v>
       </c>
-      <c r="E53" s="176">
+      <c r="E53" s="135">
         <v>280.34673139784962</v>
       </c>
-      <c r="F53" s="176">
+      <c r="F53" s="135">
         <v>282.19861339784961</v>
       </c>
-      <c r="G53" s="176">
+      <c r="G53" s="135">
         <v>282.23925204301077</v>
       </c>
-      <c r="H53" s="176">
+      <c r="H53" s="135">
         <v>282.75163092473144</v>
       </c>
-      <c r="I53" s="176">
+      <c r="I53" s="135">
         <v>280.85051378494603</v>
       </c>
-      <c r="J53" s="176">
+      <c r="J53" s="135">
         <v>280.3891136129032</v>
       </c>
-      <c r="K53" s="176">
+      <c r="K53" s="135">
         <v>282.11246873118256</v>
       </c>
       <c r="L53" s="117">
@@ -19725,34 +19725,34 @@
       <c r="A54" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="B54" s="176">
+      <c r="B54" s="135">
         <v>285.16654526066333</v>
       </c>
-      <c r="C54" s="176">
+      <c r="C54" s="135">
         <v>286.12536987361784</v>
       </c>
-      <c r="D54" s="176">
+      <c r="D54" s="135">
         <v>286.74166766192741</v>
       </c>
-      <c r="E54" s="176">
+      <c r="E54" s="135">
         <v>287.36090017377569</v>
       </c>
-      <c r="F54" s="176">
+      <c r="F54" s="135">
         <v>286.3405226224329</v>
       </c>
-      <c r="G54" s="176">
+      <c r="G54" s="135">
         <v>286.40560284360203</v>
       </c>
-      <c r="H54" s="176">
+      <c r="H54" s="135">
         <v>286.49778936808838</v>
       </c>
-      <c r="I54" s="176">
+      <c r="I54" s="135">
         <v>288.57024507109008</v>
       </c>
-      <c r="J54" s="176">
+      <c r="J54" s="135">
         <v>286.7209317377567</v>
       </c>
-      <c r="K54" s="176">
+      <c r="K54" s="135">
         <v>286.42049385466026</v>
       </c>
       <c r="L54" s="117">
@@ -19764,34 +19764,34 @@
       <c r="A55" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="B55" s="176">
+      <c r="B55" s="135">
         <v>271.07886944543844</v>
       </c>
-      <c r="C55" s="176">
+      <c r="C55" s="135">
         <v>272.50488676207527</v>
       </c>
-      <c r="D55" s="176">
+      <c r="D55" s="135">
         <v>275.46593763864018</v>
       </c>
-      <c r="E55" s="176">
+      <c r="E55" s="135">
         <v>272.99280754919522</v>
       </c>
-      <c r="F55" s="176">
+      <c r="F55" s="135">
         <v>272.82797488372091</v>
       </c>
-      <c r="G55" s="176">
+      <c r="G55" s="135">
         <v>274.83494016100184</v>
       </c>
-      <c r="H55" s="176">
+      <c r="H55" s="135">
         <v>271.63082908765659</v>
       </c>
-      <c r="I55" s="176">
+      <c r="I55" s="135">
         <v>272.98055774597503</v>
       </c>
-      <c r="J55" s="176">
+      <c r="J55" s="135">
         <v>273.38722248658308</v>
       </c>
-      <c r="K55" s="176">
+      <c r="K55" s="135">
         <v>272.39560148479438</v>
       </c>
       <c r="L55" s="117">
@@ -19803,34 +19803,34 @@
       <c r="A56" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="B56" s="176">
+      <c r="B56" s="135">
         <v>280.99265740384567</v>
       </c>
-      <c r="C56" s="176">
+      <c r="C56" s="135">
         <v>281.24287953125008</v>
       </c>
-      <c r="D56" s="176">
+      <c r="D56" s="135">
         <v>281.81342391826911</v>
       </c>
-      <c r="E56" s="176">
+      <c r="E56" s="135">
         <v>281.5370012740384</v>
       </c>
-      <c r="F56" s="176">
+      <c r="F56" s="135">
         <v>282.13650046874983</v>
       </c>
-      <c r="G56" s="176">
+      <c r="G56" s="135">
         <v>282.87062098557703</v>
       </c>
-      <c r="H56" s="176">
+      <c r="H56" s="135">
         <v>281.53123075721146</v>
       </c>
-      <c r="I56" s="176">
+      <c r="I56" s="135">
         <v>282.01329318509664</v>
       </c>
-      <c r="J56" s="176">
+      <c r="J56" s="135">
         <v>284.46715806490334</v>
       </c>
-      <c r="K56" s="176">
+      <c r="K56" s="135">
         <v>281.57918343750032</v>
       </c>
       <c r="L56" s="117">
@@ -19842,34 +19842,34 @@
       <c r="A57" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="B57" s="176">
+      <c r="B57" s="135">
         <v>260.66704588685013</v>
       </c>
-      <c r="C57" s="176">
+      <c r="C57" s="135">
         <v>260.9040644801222</v>
       </c>
-      <c r="D57" s="176">
+      <c r="D57" s="135">
         <v>261.95558885321088</v>
       </c>
-      <c r="E57" s="176">
+      <c r="E57" s="135">
         <v>260.22263617737013</v>
       </c>
-      <c r="F57" s="176">
+      <c r="F57" s="135">
         <v>261.10801974006114</v>
       </c>
-      <c r="G57" s="176">
+      <c r="G57" s="135">
         <v>259.87481472477072</v>
       </c>
-      <c r="H57" s="176">
+      <c r="H57" s="135">
         <v>259.76481524464822</v>
       </c>
-      <c r="I57" s="176">
+      <c r="I57" s="135">
         <v>261.04162380733942</v>
       </c>
-      <c r="J57" s="176">
+      <c r="J57" s="135">
         <v>260.96712616207981</v>
       </c>
-      <c r="K57" s="176">
+      <c r="K57" s="135">
         <v>260.81979796636085</v>
       </c>
       <c r="L57" s="117">
@@ -19881,34 +19881,34 @@
       <c r="A58" s="119" t="s">
         <v>35</v>
       </c>
-      <c r="B58" s="176">
+      <c r="B58" s="135">
         <v>279.5150676916802</v>
       </c>
-      <c r="C58" s="176">
+      <c r="C58" s="135">
         <v>280.3175660848284</v>
       </c>
-      <c r="D58" s="176">
+      <c r="D58" s="135">
         <v>279.75361610114231</v>
       </c>
-      <c r="E58" s="176">
+      <c r="E58" s="135">
         <v>278.89050869494292</v>
       </c>
-      <c r="F58" s="176">
+      <c r="F58" s="135">
         <v>278.91163041598656</v>
       </c>
-      <c r="G58" s="176">
+      <c r="G58" s="135">
         <v>280.08951482871134</v>
       </c>
-      <c r="H58" s="176">
+      <c r="H58" s="135">
         <v>278.66104334420839</v>
       </c>
-      <c r="I58" s="176">
+      <c r="I58" s="135">
         <v>279.47994411908655</v>
       </c>
-      <c r="J58" s="176">
+      <c r="J58" s="135">
         <v>279.38321457585664</v>
       </c>
-      <c r="K58" s="176">
+      <c r="K58" s="135">
         <v>280.34109364600323</v>
       </c>
       <c r="L58" s="117">
@@ -19920,34 +19920,34 @@
       <c r="A59" s="119" t="s">
         <v>85</v>
       </c>
-      <c r="B59" s="176">
+      <c r="B59" s="135">
         <v>274.74328948519144</v>
       </c>
-      <c r="C59" s="176">
+      <c r="C59" s="135">
         <v>274.80125130963955</v>
       </c>
-      <c r="D59" s="176">
+      <c r="D59" s="135">
         <v>275.28234161712561</v>
       </c>
-      <c r="E59" s="176">
+      <c r="E59" s="135">
         <v>274.94277309962234</v>
       </c>
-      <c r="F59" s="176">
+      <c r="F59" s="135">
         <v>274.93912184437067</v>
       </c>
-      <c r="G59" s="176">
+      <c r="G59" s="135">
         <v>275.20598440064418</v>
       </c>
-      <c r="H59" s="176">
+      <c r="H59" s="135">
         <v>274.83882752180875</v>
       </c>
-      <c r="I59" s="176">
+      <c r="I59" s="135">
         <v>275.31000348465147</v>
       </c>
-      <c r="J59" s="176">
+      <c r="J59" s="135">
         <v>275.20490092083963</v>
       </c>
-      <c r="K59" s="176">
+      <c r="K59" s="135">
         <v>275.10669836510465</v>
       </c>
       <c r="L59" s="117">
@@ -19956,40 +19956,40 @@
       </c>
     </row>
     <row r="62" spans="1:12" s="125" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A62" s="179" t="s">
+      <c r="A62" s="138" t="s">
         <v>59</v>
       </c>
-      <c r="B62" s="178" t="s">
+      <c r="B62" s="137" t="s">
         <v>96</v>
       </c>
-      <c r="C62" s="178" t="s">
+      <c r="C62" s="137" t="s">
         <v>97</v>
       </c>
-      <c r="D62" s="178" t="s">
+      <c r="D62" s="137" t="s">
         <v>98</v>
       </c>
-      <c r="E62" s="178" t="s">
+      <c r="E62" s="137" t="s">
         <v>99</v>
       </c>
-      <c r="F62" s="178" t="s">
+      <c r="F62" s="137" t="s">
         <v>100</v>
       </c>
-      <c r="G62" s="178" t="s">
+      <c r="G62" s="137" t="s">
         <v>101</v>
       </c>
-      <c r="H62" s="178" t="s">
+      <c r="H62" s="137" t="s">
         <v>102</v>
       </c>
-      <c r="I62" s="178" t="s">
+      <c r="I62" s="137" t="s">
         <v>103</v>
       </c>
-      <c r="J62" s="178" t="s">
+      <c r="J62" s="137" t="s">
         <v>104</v>
       </c>
-      <c r="K62" s="178" t="s">
+      <c r="K62" s="137" t="s">
         <v>105</v>
       </c>
-      <c r="L62" s="179" t="s">
+      <c r="L62" s="138" t="s">
         <v>106</v>
       </c>
     </row>
@@ -19997,34 +19997,34 @@
       <c r="A63" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="B63" s="176">
+      <c r="B63" s="135">
         <v>299.49755683153001</v>
       </c>
-      <c r="C63" s="176">
+      <c r="C63" s="135">
         <v>298.38906474497685</v>
       </c>
-      <c r="D63" s="176">
+      <c r="D63" s="135">
         <v>298.92363862442022</v>
       </c>
-      <c r="E63" s="176">
+      <c r="E63" s="135">
         <v>297.11413523956747</v>
       </c>
-      <c r="F63" s="176">
+      <c r="F63" s="135">
         <v>297.03446451313761</v>
       </c>
-      <c r="G63" s="176">
+      <c r="G63" s="135">
         <v>301.23286047913473</v>
       </c>
-      <c r="H63" s="176">
+      <c r="H63" s="135">
         <v>298.71532228748055</v>
       </c>
-      <c r="I63" s="176">
+      <c r="I63" s="135">
         <v>298.8438692890262</v>
       </c>
-      <c r="J63" s="176">
+      <c r="J63" s="135">
         <v>298.68904689335386</v>
       </c>
-      <c r="K63" s="176">
+      <c r="K63" s="135">
         <v>299.18346375579574</v>
       </c>
       <c r="L63" s="117">
@@ -20036,34 +20036,34 @@
       <c r="A64" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="B64" s="176">
+      <c r="B64" s="135">
         <v>263.89346593749997</v>
       </c>
-      <c r="C64" s="176">
+      <c r="C64" s="135">
         <v>262.42535305555589</v>
       </c>
-      <c r="D64" s="176">
+      <c r="D64" s="135">
         <v>262.91159635416687</v>
       </c>
-      <c r="E64" s="176">
+      <c r="E64" s="135">
         <v>262.9810980729165</v>
       </c>
-      <c r="F64" s="176">
+      <c r="F64" s="135">
         <v>261.27621881944447</v>
       </c>
-      <c r="G64" s="176">
+      <c r="G64" s="135">
         <v>261.66319347222213</v>
       </c>
-      <c r="H64" s="176">
+      <c r="H64" s="135">
         <v>263.23698039930554</v>
       </c>
-      <c r="I64" s="176">
+      <c r="I64" s="135">
         <v>262.60380963541667</v>
       </c>
-      <c r="J64" s="176">
+      <c r="J64" s="135">
         <v>264.00159486111096</v>
       </c>
-      <c r="K64" s="176">
+      <c r="K64" s="135">
         <v>261.58523666666645</v>
       </c>
       <c r="L64" s="117">
@@ -20075,34 +20075,34 @@
       <c r="A65" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="B65" s="176">
+      <c r="B65" s="135">
         <v>296.84017736619694</v>
       </c>
-      <c r="C65" s="176">
+      <c r="C65" s="135">
         <v>298.44458791549312</v>
       </c>
-      <c r="D65" s="176">
+      <c r="D65" s="135">
         <v>299.87140204225364</v>
       </c>
-      <c r="E65" s="176">
+      <c r="E65" s="135">
         <v>300.27666392957758</v>
       </c>
-      <c r="F65" s="176">
+      <c r="F65" s="135">
         <v>299.73326084507022</v>
       </c>
-      <c r="G65" s="176">
+      <c r="G65" s="135">
         <v>298.83447553521086</v>
       </c>
-      <c r="H65" s="176">
+      <c r="H65" s="135">
         <v>299.27966090140836</v>
       </c>
-      <c r="I65" s="176">
+      <c r="I65" s="135">
         <v>297.23521046478857</v>
       </c>
-      <c r="J65" s="176">
+      <c r="J65" s="135">
         <v>299.63244471831001</v>
       </c>
-      <c r="K65" s="176">
+      <c r="K65" s="135">
         <v>297.89733460563377</v>
       </c>
       <c r="L65" s="117">
@@ -20114,34 +20114,34 @@
       <c r="A66" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="B66" s="176">
+      <c r="B66" s="135">
         <v>302.07794638977646</v>
       </c>
-      <c r="C66" s="176">
+      <c r="C66" s="135">
         <v>301.73194869009558</v>
       </c>
-      <c r="D66" s="176">
+      <c r="D66" s="135">
         <v>301.99927571884979</v>
       </c>
-      <c r="E66" s="176">
+      <c r="E66" s="135">
         <v>302.34825397763569</v>
       </c>
-      <c r="F66" s="176">
+      <c r="F66" s="135">
         <v>301.88914952076675</v>
       </c>
-      <c r="G66" s="176">
+      <c r="G66" s="135">
         <v>301.16779554313086</v>
       </c>
-      <c r="H66" s="176">
+      <c r="H66" s="135">
         <v>302.54320067092647</v>
       </c>
-      <c r="I66" s="176">
+      <c r="I66" s="135">
         <v>301.76850519169312</v>
       </c>
-      <c r="J66" s="176">
+      <c r="J66" s="135">
         <v>302.38690977635775</v>
       </c>
-      <c r="K66" s="176">
+      <c r="K66" s="135">
         <v>301.39460846645414</v>
       </c>
       <c r="L66" s="117">
@@ -20153,34 +20153,34 @@
       <c r="A67" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="B67" s="176">
+      <c r="B67" s="135">
         <v>226.70701393650805</v>
       </c>
-      <c r="C67" s="176">
+      <c r="C67" s="135">
         <v>226.83169892063495</v>
       </c>
-      <c r="D67" s="176">
+      <c r="D67" s="135">
         <v>224.7188326666668</v>
       </c>
-      <c r="E67" s="176">
+      <c r="E67" s="135">
         <v>227.83445990476193</v>
       </c>
-      <c r="F67" s="176">
+      <c r="F67" s="135">
         <v>223.93835219047611</v>
       </c>
-      <c r="G67" s="176">
+      <c r="G67" s="135">
         <v>225.21704841269849</v>
       </c>
-      <c r="H67" s="176">
+      <c r="H67" s="135">
         <v>227.88325736507952</v>
       </c>
-      <c r="I67" s="176">
+      <c r="I67" s="135">
         <v>224.67466971428593</v>
       </c>
-      <c r="J67" s="176">
+      <c r="J67" s="135">
         <v>226.18494825396823</v>
       </c>
-      <c r="K67" s="176">
+      <c r="K67" s="135">
         <v>227.87589568253958</v>
       </c>
       <c r="L67" s="117">
@@ -20192,34 +20192,34 @@
       <c r="A68" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="B68" s="176">
+      <c r="B68" s="135">
         <v>290.41919800959244</v>
       </c>
-      <c r="C68" s="176">
+      <c r="C68" s="135">
         <v>293.32010131894498</v>
       </c>
-      <c r="D68" s="176">
+      <c r="D68" s="135">
         <v>293.4093625179857</v>
       </c>
-      <c r="E68" s="176">
+      <c r="E68" s="135">
         <v>292.62037496402849</v>
       </c>
-      <c r="F68" s="176">
+      <c r="F68" s="135">
         <v>292.25355745803341</v>
       </c>
-      <c r="G68" s="176">
+      <c r="G68" s="135">
         <v>292.19690005995176</v>
       </c>
-      <c r="H68" s="176">
+      <c r="H68" s="135">
         <v>293.21896101918475</v>
       </c>
-      <c r="I68" s="176">
+      <c r="I68" s="135">
         <v>294.31547238609107</v>
       </c>
-      <c r="J68" s="176">
+      <c r="J68" s="135">
         <v>291.34342226618679</v>
       </c>
-      <c r="K68" s="176">
+      <c r="K68" s="135">
         <v>293.96516581534786</v>
       </c>
       <c r="L68" s="117">
@@ -20231,34 +20231,34 @@
       <c r="A69" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="B69" s="176">
+      <c r="B69" s="135">
         <v>314.74706118983954</v>
       </c>
-      <c r="C69" s="176">
+      <c r="C69" s="135">
         <v>314.91542834224617</v>
       </c>
-      <c r="D69" s="176">
+      <c r="D69" s="135">
         <v>314.02330236631042</v>
       </c>
-      <c r="E69" s="176">
+      <c r="E69" s="135">
         <v>314.46053771390359</v>
       </c>
-      <c r="F69" s="176">
+      <c r="F69" s="135">
         <v>313.90423114973254</v>
       </c>
-      <c r="G69" s="176">
+      <c r="G69" s="135">
         <v>314.72278080213886</v>
       </c>
-      <c r="H69" s="176">
+      <c r="H69" s="135">
         <v>314.4701929010692</v>
       </c>
-      <c r="I69" s="176">
+      <c r="I69" s="135">
         <v>313.86068504010706</v>
       </c>
-      <c r="J69" s="176">
+      <c r="J69" s="135">
         <v>310.93620098930495</v>
       </c>
-      <c r="K69" s="176">
+      <c r="K69" s="135">
         <v>313.7359192780753</v>
       </c>
       <c r="L69" s="117">
@@ -20270,34 +20270,34 @@
       <c r="A70" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="B70" s="176" t="e">
+      <c r="B70" s="135" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="C70" s="176" t="e">
+      <c r="C70" s="135" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="D70" s="176" t="e">
+      <c r="D70" s="135" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="E70" s="176" t="e">
+      <c r="E70" s="135" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="F70" s="176" t="e">
+      <c r="F70" s="135" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="G70" s="176" t="e">
+      <c r="G70" s="135" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="H70" s="176" t="e">
+      <c r="H70" s="135" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="I70" s="176" t="e">
+      <c r="I70" s="135" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="J70" s="176" t="e">
+      <c r="J70" s="135" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="K70" s="176" t="e">
+      <c r="K70" s="135" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="L70" s="117" t="e">
@@ -20309,34 +20309,34 @@
       <c r="A71" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="176">
+      <c r="B71" s="135">
         <v>261.1554847222223</v>
       </c>
-      <c r="C71" s="176">
+      <c r="C71" s="135">
         <v>259.60772600694463</v>
       </c>
-      <c r="D71" s="176">
+      <c r="D71" s="135">
         <v>260.70606614583312</v>
       </c>
-      <c r="E71" s="176">
+      <c r="E71" s="135">
         <v>263.57953701388874</v>
       </c>
-      <c r="F71" s="176">
+      <c r="F71" s="135">
         <v>261.18247743055576</v>
       </c>
-      <c r="G71" s="176">
+      <c r="G71" s="135">
         <v>261.79168440972205</v>
       </c>
-      <c r="H71" s="176">
+      <c r="H71" s="135">
         <v>263.06006142361122</v>
       </c>
-      <c r="I71" s="176">
+      <c r="I71" s="135">
         <v>261.22677423611111</v>
       </c>
-      <c r="J71" s="176">
+      <c r="J71" s="135">
         <v>257.92842958333364</v>
       </c>
-      <c r="K71" s="176">
+      <c r="K71" s="135">
         <v>258.68262093749991</v>
       </c>
       <c r="L71" s="117">
@@ -20348,34 +20348,34 @@
       <c r="A72" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="B72" s="176">
+      <c r="B72" s="135">
         <v>288.61117147564471</v>
       </c>
-      <c r="C72" s="176">
+      <c r="C72" s="135">
         <v>288.22709098853898</v>
       </c>
-      <c r="D72" s="176">
+      <c r="D72" s="135">
         <v>287.91177499999981</v>
       </c>
-      <c r="E72" s="176">
+      <c r="E72" s="135">
         <v>288.51599869627518</v>
       </c>
-      <c r="F72" s="176">
+      <c r="F72" s="135">
         <v>287.40140471346712</v>
       </c>
-      <c r="G72" s="176">
+      <c r="G72" s="135">
         <v>289.34920276504312</v>
       </c>
-      <c r="H72" s="176">
+      <c r="H72" s="135">
         <v>290.11667189111728</v>
       </c>
-      <c r="I72" s="176">
+      <c r="I72" s="135">
         <v>288.43418512893976</v>
       </c>
-      <c r="J72" s="176">
+      <c r="J72" s="135">
         <v>287.90434618911195</v>
       </c>
-      <c r="K72" s="176">
+      <c r="K72" s="135">
         <v>286.94626164756465</v>
       </c>
       <c r="L72" s="117">
@@ -20387,34 +20387,34 @@
       <c r="A73" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="B73" s="176">
+      <c r="B73" s="135">
         <v>282.36082793333298</v>
       </c>
-      <c r="C73" s="176">
+      <c r="C73" s="135">
         <v>281.57388808333303</v>
       </c>
-      <c r="D73" s="176">
+      <c r="D73" s="135">
         <v>281.78467055000027</v>
       </c>
-      <c r="E73" s="176">
+      <c r="E73" s="135">
         <v>283.39992645000007</v>
       </c>
-      <c r="F73" s="176">
+      <c r="F73" s="135">
         <v>280.32255723333321</v>
       </c>
-      <c r="G73" s="176">
+      <c r="G73" s="135">
         <v>281.44407635000005</v>
       </c>
-      <c r="H73" s="176">
+      <c r="H73" s="135">
         <v>282.37126421666693</v>
       </c>
-      <c r="I73" s="176">
+      <c r="I73" s="135">
         <v>283.75652526666647</v>
       </c>
-      <c r="J73" s="176">
+      <c r="J73" s="135">
         <v>282.21884613333305</v>
       </c>
-      <c r="K73" s="176">
+      <c r="K73" s="135">
         <v>282.28179488333325</v>
       </c>
       <c r="L73" s="117">
@@ -20426,34 +20426,34 @@
       <c r="A74" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="B74" s="176" t="e">
+      <c r="B74" s="135" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="C74" s="176" t="e">
+      <c r="C74" s="135" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="D74" s="176" t="e">
+      <c r="D74" s="135" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="E74" s="176" t="e">
+      <c r="E74" s="135" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="F74" s="176" t="e">
+      <c r="F74" s="135" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="G74" s="176" t="e">
+      <c r="G74" s="135" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="H74" s="176" t="e">
+      <c r="H74" s="135" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="I74" s="176" t="e">
+      <c r="I74" s="135" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="J74" s="176" t="e">
+      <c r="J74" s="135" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="K74" s="176" t="e">
+      <c r="K74" s="135" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="L74" s="117" t="e">
@@ -20465,34 +20465,34 @@
       <c r="A75" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="B75" s="176">
+      <c r="B75" s="135">
         <v>313.68869489981807</v>
       </c>
-      <c r="C75" s="176">
+      <c r="C75" s="135">
         <v>312.98183209471762</v>
       </c>
-      <c r="D75" s="176">
+      <c r="D75" s="135">
         <v>313.92057224043742</v>
       </c>
-      <c r="E75" s="176">
+      <c r="E75" s="135">
         <v>315.46186398907111</v>
       </c>
-      <c r="F75" s="176">
+      <c r="F75" s="135">
         <v>312.32123612021803</v>
       </c>
-      <c r="G75" s="176">
+      <c r="G75" s="135">
         <v>314.16320331511827</v>
       </c>
-      <c r="H75" s="176">
+      <c r="H75" s="135">
         <v>313.29896670309648</v>
       </c>
-      <c r="I75" s="176">
+      <c r="I75" s="135">
         <v>315.28038845173063</v>
       </c>
-      <c r="J75" s="176">
+      <c r="J75" s="135">
         <v>312.36956202185763</v>
       </c>
-      <c r="K75" s="176">
+      <c r="K75" s="135">
         <v>313.88618908925309</v>
       </c>
       <c r="L75" s="117">
@@ -20504,34 +20504,34 @@
       <c r="A76" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="B76" s="176">
+      <c r="B76" s="135">
         <v>266.64262547826075</v>
       </c>
-      <c r="C76" s="176">
+      <c r="C76" s="135">
         <v>265.82102586956472</v>
       </c>
-      <c r="D76" s="176">
+      <c r="D76" s="135">
         <v>266.32970246376823</v>
       </c>
-      <c r="E76" s="176">
+      <c r="E76" s="135">
         <v>265.62611853623184</v>
       </c>
-      <c r="F76" s="176">
+      <c r="F76" s="135">
         <v>267.81452146376819</v>
       </c>
-      <c r="G76" s="176">
+      <c r="G76" s="135">
         <v>267.64663801449274</v>
       </c>
-      <c r="H76" s="176">
+      <c r="H76" s="135">
         <v>268.94670333333363</v>
       </c>
-      <c r="I76" s="176">
+      <c r="I76" s="135">
         <v>265.11637069565256</v>
       </c>
-      <c r="J76" s="176">
+      <c r="J76" s="135">
         <v>264.67416624637661</v>
       </c>
-      <c r="K76" s="176">
+      <c r="K76" s="135">
         <v>264.95352226086942</v>
       </c>
       <c r="L76" s="117">
@@ -20543,34 +20543,34 @@
       <c r="A77" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="B77" s="176">
+      <c r="B77" s="135">
         <v>279.54277174067516</v>
       </c>
-      <c r="C77" s="176">
+      <c r="C77" s="135">
         <v>278.96448088809956</v>
       </c>
-      <c r="D77" s="176">
+      <c r="D77" s="135">
         <v>278.4459398756664</v>
       </c>
-      <c r="E77" s="176">
+      <c r="E77" s="135">
         <v>278.51517046181209</v>
       </c>
-      <c r="F77" s="176">
+      <c r="F77" s="135">
         <v>278.68834678507977</v>
       </c>
-      <c r="G77" s="176">
+      <c r="G77" s="135">
         <v>280.98312944937788</v>
       </c>
-      <c r="H77" s="176">
+      <c r="H77" s="135">
         <v>279.6172251687392</v>
       </c>
-      <c r="I77" s="176">
+      <c r="I77" s="135">
         <v>279.25338170515096</v>
       </c>
-      <c r="J77" s="176">
+      <c r="J77" s="135">
         <v>275.76059923623467</v>
       </c>
-      <c r="K77" s="176">
+      <c r="K77" s="135">
         <v>278.44367683836583</v>
       </c>
       <c r="L77" s="117">
@@ -20582,34 +20582,34 @@
       <c r="A78" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="B78" s="176">
+      <c r="B78" s="135">
         <v>260.50358019774012</v>
       </c>
-      <c r="C78" s="176">
+      <c r="C78" s="135">
         <v>260.5651873163842</v>
       </c>
-      <c r="D78" s="176">
+      <c r="D78" s="135">
         <v>257.61916313559323</v>
       </c>
-      <c r="E78" s="176">
+      <c r="E78" s="135">
         <v>260.42740971751414</v>
       </c>
-      <c r="F78" s="176">
+      <c r="F78" s="135">
         <v>262.56166443502792</v>
       </c>
-      <c r="G78" s="176">
+      <c r="G78" s="135">
         <v>262.04788892655375</v>
       </c>
-      <c r="H78" s="176">
+      <c r="H78" s="135">
         <v>261.42841680790957</v>
       </c>
-      <c r="I78" s="176">
+      <c r="I78" s="135">
         <v>259.21528754237278</v>
       </c>
-      <c r="J78" s="176">
+      <c r="J78" s="135">
         <v>263.50587991525435</v>
       </c>
-      <c r="K78" s="176">
+      <c r="K78" s="135">
         <v>262.63273709039544</v>
       </c>
       <c r="L78" s="117">
@@ -20621,34 +20621,34 @@
       <c r="A79" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="B79" s="176">
+      <c r="B79" s="135">
         <v>306.58883700342489</v>
       </c>
-      <c r="C79" s="176">
+      <c r="C79" s="135">
         <v>306.17711140410978</v>
       </c>
-      <c r="D79" s="176">
+      <c r="D79" s="135">
         <v>307.79656972602749</v>
       </c>
-      <c r="E79" s="176">
+      <c r="E79" s="135">
         <v>306.61621900684929</v>
       </c>
-      <c r="F79" s="176">
+      <c r="F79" s="135">
         <v>304.19842837328792</v>
       </c>
-      <c r="G79" s="176">
+      <c r="G79" s="135">
         <v>307.01089645547927</v>
       </c>
-      <c r="H79" s="176">
+      <c r="H79" s="135">
         <v>305.10077491438352</v>
       </c>
-      <c r="I79" s="176">
+      <c r="I79" s="135">
         <v>304.91543523972621</v>
       </c>
-      <c r="J79" s="176">
+      <c r="J79" s="135">
         <v>304.64470813356172</v>
       </c>
-      <c r="K79" s="176">
+      <c r="K79" s="135">
         <v>307.15629457191773</v>
       </c>
       <c r="L79" s="117">
@@ -20660,34 +20660,34 @@
       <c r="A80" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="B80" s="176">
+      <c r="B80" s="135">
         <v>299.77365247452707</v>
       </c>
-      <c r="C80" s="176">
+      <c r="C80" s="135">
         <v>302.8033530858807</v>
       </c>
-      <c r="D80" s="176">
+      <c r="D80" s="135">
         <v>301.1329325036391</v>
       </c>
-      <c r="E80" s="176">
+      <c r="E80" s="135">
         <v>301.68883967976728</v>
       </c>
-      <c r="F80" s="176">
+      <c r="F80" s="135">
         <v>302.10030653566213</v>
       </c>
-      <c r="G80" s="176">
+      <c r="G80" s="135">
         <v>301.1583586026203</v>
       </c>
-      <c r="H80" s="176">
+      <c r="H80" s="135">
         <v>302.41362401746699</v>
       </c>
-      <c r="I80" s="176">
+      <c r="I80" s="135">
         <v>301.3812086899564</v>
       </c>
-      <c r="J80" s="176">
+      <c r="J80" s="135">
         <v>301.06019326055315</v>
       </c>
-      <c r="K80" s="176">
+      <c r="K80" s="135">
         <v>301.87176803493458</v>
       </c>
       <c r="L80" s="117">
@@ -20699,34 +20699,34 @@
       <c r="A81" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="B81" s="176">
+      <c r="B81" s="135">
         <v>305.17670711175612</v>
       </c>
-      <c r="C81" s="176">
+      <c r="C81" s="135">
         <v>305.30617539912924</v>
       </c>
-      <c r="D81" s="176">
+      <c r="D81" s="135">
         <v>306.98291393323666</v>
       </c>
-      <c r="E81" s="176">
+      <c r="E81" s="135">
         <v>306.58887637155283</v>
       </c>
-      <c r="F81" s="176">
+      <c r="F81" s="135">
         <v>306.44771343976765</v>
       </c>
-      <c r="G81" s="176">
+      <c r="G81" s="135">
         <v>306.91789238026098</v>
       </c>
-      <c r="H81" s="176">
+      <c r="H81" s="135">
         <v>306.51467471698089</v>
       </c>
-      <c r="I81" s="176">
+      <c r="I81" s="135">
         <v>306.61911817126287</v>
       </c>
-      <c r="J81" s="176">
+      <c r="J81" s="135">
         <v>305.78722748911491</v>
       </c>
-      <c r="K81" s="176">
+      <c r="K81" s="135">
         <v>306.83644796806942</v>
       </c>
       <c r="L81" s="117">
@@ -20738,34 +20738,34 @@
       <c r="A82" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="B82" s="176">
+      <c r="B82" s="135">
         <v>280.94796512169319</v>
       </c>
-      <c r="C82" s="176">
+      <c r="C82" s="135">
         <v>281.69434001058221</v>
       </c>
-      <c r="D82" s="176">
+      <c r="D82" s="135">
         <v>282.00087768253979</v>
       </c>
-      <c r="E82" s="176">
+      <c r="E82" s="135">
         <v>282.68646517460337</v>
       </c>
-      <c r="F82" s="176">
+      <c r="F82" s="135">
         <v>282.90269691005312</v>
       </c>
-      <c r="G82" s="176">
+      <c r="G82" s="135">
         <v>282.29688416931191</v>
       </c>
-      <c r="H82" s="176">
+      <c r="H82" s="135">
         <v>284.28338997883571</v>
       </c>
-      <c r="I82" s="176">
+      <c r="I82" s="135">
         <v>282.82789233862422</v>
       </c>
-      <c r="J82" s="176">
+      <c r="J82" s="135">
         <v>283.95854407407404</v>
       </c>
-      <c r="K82" s="176">
+      <c r="K82" s="135">
         <v>285.25131225396825</v>
       </c>
       <c r="L82" s="117">
@@ -20777,34 +20777,34 @@
       <c r="A83" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="B83" s="176">
+      <c r="B83" s="135">
         <v>289.16560540404038</v>
       </c>
-      <c r="C83" s="176">
+      <c r="C83" s="135">
         <v>288.98100262626247</v>
       </c>
-      <c r="D83" s="176">
+      <c r="D83" s="135">
         <v>288.33568767676741</v>
       </c>
-      <c r="E83" s="176">
+      <c r="E83" s="135">
         <v>288.29172103535353</v>
       </c>
-      <c r="F83" s="176">
+      <c r="F83" s="135">
         <v>289.19308285353549</v>
       </c>
-      <c r="G83" s="176">
+      <c r="G83" s="135">
         <v>287.77030654040419</v>
       </c>
-      <c r="H83" s="176">
+      <c r="H83" s="135">
         <v>289.0977306060604</v>
       </c>
-      <c r="I83" s="176">
+      <c r="I83" s="135">
         <v>288.15379997474764</v>
       </c>
-      <c r="J83" s="176">
+      <c r="J83" s="135">
         <v>289.47603590909085</v>
       </c>
-      <c r="K83" s="176">
+      <c r="K83" s="135">
         <v>290.26187217171719</v>
       </c>
       <c r="L83" s="117">
@@ -20816,34 +20816,34 @@
       <c r="A84" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="176">
+      <c r="B84" s="135">
         <v>287.54774529865114</v>
       </c>
-      <c r="C84" s="176">
+      <c r="C84" s="135">
         <v>286.35656691714831</v>
       </c>
-      <c r="D84" s="176">
+      <c r="D84" s="135">
         <v>286.25355285163778</v>
       </c>
-      <c r="E84" s="176">
+      <c r="E84" s="135">
         <v>284.84016747591522</v>
       </c>
-      <c r="F84" s="176">
+      <c r="F84" s="135">
         <v>285.51141551059737</v>
       </c>
-      <c r="G84" s="176">
+      <c r="G84" s="135">
         <v>287.98338797687848</v>
       </c>
-      <c r="H84" s="176">
+      <c r="H84" s="135">
         <v>286.94567489402726</v>
       </c>
-      <c r="I84" s="176">
+      <c r="I84" s="135">
         <v>286.87468747591521</v>
       </c>
-      <c r="J84" s="176">
+      <c r="J84" s="135">
         <v>287.85938531791913</v>
       </c>
-      <c r="K84" s="176">
+      <c r="K84" s="135">
         <v>286.69084206165701</v>
       </c>
       <c r="L84" s="117">
@@ -20855,34 +20855,34 @@
       <c r="A85" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="176">
+      <c r="B85" s="135">
         <v>277.46192919540232</v>
       </c>
-      <c r="C85" s="176">
+      <c r="C85" s="135">
         <v>279.02041275862103</v>
       </c>
-      <c r="D85" s="176">
+      <c r="D85" s="135">
         <v>277.40244869731794</v>
       </c>
-      <c r="E85" s="176">
+      <c r="E85" s="135">
         <v>276.69217003831403</v>
       </c>
-      <c r="F85" s="176">
+      <c r="F85" s="135">
         <v>279.98582469348662</v>
       </c>
-      <c r="G85" s="176">
+      <c r="G85" s="135">
         <v>277.33879942528733</v>
       </c>
-      <c r="H85" s="176">
+      <c r="H85" s="135">
         <v>280.63241846743318</v>
       </c>
-      <c r="I85" s="176">
+      <c r="I85" s="135">
         <v>275.15614831417628</v>
       </c>
-      <c r="J85" s="176">
+      <c r="J85" s="135">
         <v>277.55452354406134</v>
       </c>
-      <c r="K85" s="176">
+      <c r="K85" s="135">
         <v>278.20498806513393</v>
       </c>
       <c r="L85" s="117">
@@ -20894,34 +20894,34 @@
       <c r="A86" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="B86" s="176">
+      <c r="B86" s="135">
         <v>298.55391554830317</v>
       </c>
-      <c r="C86" s="176">
+      <c r="C86" s="135">
         <v>293.26816137075713</v>
       </c>
-      <c r="D86" s="176">
+      <c r="D86" s="135">
         <v>296.84898703655358</v>
       </c>
-      <c r="E86" s="176">
+      <c r="E86" s="135">
         <v>296.51834224543052</v>
       </c>
-      <c r="F86" s="176">
+      <c r="F86" s="135">
         <v>294.97064456919054</v>
       </c>
-      <c r="G86" s="176">
+      <c r="G86" s="135">
         <v>295.49740357702342</v>
       </c>
-      <c r="H86" s="176">
+      <c r="H86" s="135">
         <v>295.57135924282017</v>
       </c>
-      <c r="I86" s="176">
+      <c r="I86" s="135">
         <v>296.71627133159251</v>
       </c>
-      <c r="J86" s="176">
+      <c r="J86" s="135">
         <v>297.95769240208881</v>
       </c>
-      <c r="K86" s="176">
+      <c r="K86" s="135">
         <v>297.16002908616156</v>
       </c>
       <c r="L86" s="117">
@@ -20933,34 +20933,34 @@
       <c r="A87" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="B87" s="176" t="e">
+      <c r="B87" s="135" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="C87" s="176" t="e">
+      <c r="C87" s="135" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="D87" s="176" t="e">
+      <c r="D87" s="135" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="E87" s="176" t="e">
+      <c r="E87" s="135" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="F87" s="176" t="e">
+      <c r="F87" s="135" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="G87" s="176" t="e">
+      <c r="G87" s="135" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="H87" s="176" t="e">
+      <c r="H87" s="135" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="I87" s="176" t="e">
+      <c r="I87" s="135" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="J87" s="176" t="e">
+      <c r="J87" s="135" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="K87" s="176" t="e">
+      <c r="K87" s="135" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="L87" s="117" t="e">
@@ -20972,34 +20972,34 @@
       <c r="A88" s="119" t="s">
         <v>35</v>
       </c>
-      <c r="B88" s="176">
+      <c r="B88" s="135">
         <v>295.42134087779698</v>
       </c>
-      <c r="C88" s="176">
+      <c r="C88" s="135">
         <v>294.4545071772809</v>
       </c>
-      <c r="D88" s="176">
+      <c r="D88" s="135">
         <v>296.14094624784883</v>
       </c>
-      <c r="E88" s="176">
+      <c r="E88" s="135">
         <v>296.64217012048215</v>
       </c>
-      <c r="F88" s="176">
+      <c r="F88" s="135">
         <v>295.59203025817504</v>
       </c>
-      <c r="G88" s="176">
+      <c r="G88" s="135">
         <v>294.74350704819278</v>
       </c>
-      <c r="H88" s="176">
+      <c r="H88" s="135">
         <v>295.72959822719457</v>
       </c>
-      <c r="I88" s="176">
+      <c r="I88" s="135">
         <v>293.06686985370033</v>
       </c>
-      <c r="J88" s="176">
+      <c r="J88" s="135">
         <v>294.89030513769387</v>
       </c>
-      <c r="K88" s="176">
+      <c r="K88" s="135">
         <v>297.0258814974178</v>
       </c>
       <c r="L88" s="117">
@@ -21011,34 +21011,34 @@
       <c r="A89" s="119" t="s">
         <v>85</v>
       </c>
-      <c r="B89" s="176">
+      <c r="B89" s="135">
         <v>289.45784266173581</v>
       </c>
-      <c r="C89" s="176">
+      <c r="C89" s="135">
         <v>289.25635459289504</v>
       </c>
-      <c r="D89" s="176">
+      <c r="D89" s="135">
         <v>289.60845854091895</v>
       </c>
-      <c r="E89" s="176">
+      <c r="E89" s="135">
         <v>289.80990932679009</v>
       </c>
-      <c r="F89" s="176">
+      <c r="F89" s="135">
         <v>289.30289646875855</v>
       </c>
-      <c r="G89" s="176">
+      <c r="G89" s="135">
         <v>289.75443801976866</v>
       </c>
-      <c r="H89" s="176">
+      <c r="H89" s="135">
         <v>290.24550590890215</v>
       </c>
-      <c r="I89" s="176">
+      <c r="I89" s="135">
         <v>289.29222005391148</v>
       </c>
-      <c r="J89" s="176">
+      <c r="J89" s="135">
         <v>289.25652628352236</v>
       </c>
-      <c r="K89" s="176">
+      <c r="K89" s="135">
         <v>289.91903059165173</v>
       </c>
       <c r="L89" s="117">

--- a/Sample descriptive statistics.xlsx
+++ b/Sample descriptive statistics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yimi/Desktop/Desktop Contents/Dissertation/Data Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74ECEED-60EE-9F49-ABDC-D6EC2D9F614B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F3BDA2-A639-6443-91CD-350CE61CBCF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="620" windowWidth="47340" windowHeight="28180" xr2:uid="{A57578E6-31BD-C54B-9DD4-584B5A4E74C6}"/>
+    <workbookView xWindow="53120" yWindow="2460" windowWidth="47340" windowHeight="28180" xr2:uid="{A57578E6-31BD-C54B-9DD4-584B5A4E74C6}"/>
   </bookViews>
   <sheets>
     <sheet name="study 1_summary%" sheetId="2" r:id="rId1"/>
@@ -261,9 +261,6 @@
     <t>blank</t>
   </si>
   <si>
-    <t>STEM: 32,826; highest formal education: 33,124; occupation: 36, 687; job-related training: 38,493; work experience: 36,269; literacy/numeracy score: 38,541; PSTRE score: 30,079</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -371,6 +368,9 @@
   </si>
   <si>
     <t>STEM: 16,300; highest formal education: 18,559 ; occupation: 18,300; job-related training: 18,554; work experience: 17,978; literacy/numeracy score: 18, 570; PSTRE score: 14,468</t>
+  </si>
+  <si>
+    <t>STEM: 32,826; highest formal education: 38,533; occupation: 36, 687; job-related training: 38,493; work experience: 36,269; literacy/numeracy score: 38,541; PSTRE score: 30,079</t>
   </si>
 </sst>
 </file>
@@ -1499,7 +1499,7 @@
   <dimension ref="A2:X42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH28" sqref="AH28"/>
+      <selection activeCell="T55" sqref="T55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -2601,7 +2601,7 @@
         <v>276.14252966365279</v>
       </c>
       <c r="X13" s="58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -3176,7 +3176,7 @@
         <v>264.72812495633218</v>
       </c>
       <c r="X19" s="58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -4615,7 +4615,7 @@
         <v>255.55754507656371</v>
       </c>
       <c r="X34" s="58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -5125,7 +5125,7 @@
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" s="75" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -5223,7 +5223,7 @@
         <v>66</v>
       </c>
       <c r="T2" s="160" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="U2" s="162" t="s">
         <v>56</v>
@@ -7827,7 +7827,7 @@
     </row>
     <row r="33" spans="1:23" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="75" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B33" s="75"/>
       <c r="C33" s="82"/>
@@ -7876,7 +7876,7 @@
   <dimension ref="A2:AB40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD42" sqref="AD42"/>
+      <selection activeCell="P56" sqref="P56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -11042,16 +11042,16 @@
         <f t="shared" si="0"/>
         <v>38493</v>
       </c>
-      <c r="Y40" s="141">
+      <c r="Y40" s="96">
         <v>36269</v>
       </c>
-      <c r="Z40" s="141">
-        <v>38541</v>
-      </c>
-      <c r="AA40" s="141">
-        <v>38541</v>
-      </c>
-      <c r="AB40" s="141">
+      <c r="Z40" s="96">
+        <v>38451</v>
+      </c>
+      <c r="AA40" s="96">
+        <v>38451</v>
+      </c>
+      <c r="AB40" s="96">
         <v>30079</v>
       </c>
     </row>
@@ -11095,37 +11095,37 @@
         <v>57</v>
       </c>
       <c r="B1" s="121" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="121" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="121" t="s">
+      <c r="D1" s="121" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="121" t="s">
+      <c r="E1" s="121" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="121" t="s">
+      <c r="F1" s="121" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="121" t="s">
+      <c r="G1" s="121" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="121" t="s">
+      <c r="H1" s="121" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="121" t="s">
+      <c r="I1" s="121" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="121" t="s">
+      <c r="J1" s="121" t="s">
         <v>81</v>
       </c>
-      <c r="J1" s="121" t="s">
+      <c r="K1" s="121" t="s">
         <v>82</v>
       </c>
-      <c r="K1" s="121" t="s">
-        <v>83</v>
-      </c>
       <c r="L1" s="124" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -12456,7 +12456,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="119" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B36" s="117">
         <v>278.92878014008613</v>
@@ -12495,7 +12495,7 @@
     </row>
     <row r="37" spans="1:12" s="122" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="122" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B37" s="123">
         <v>272.66836665602756</v>
@@ -12543,37 +12543,37 @@
         <v>58</v>
       </c>
       <c r="B40" s="121" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="121" t="s">
         <v>86</v>
       </c>
-      <c r="C40" s="121" t="s">
+      <c r="D40" s="121" t="s">
         <v>87</v>
       </c>
-      <c r="D40" s="121" t="s">
+      <c r="E40" s="121" t="s">
         <v>88</v>
       </c>
-      <c r="E40" s="121" t="s">
+      <c r="F40" s="121" t="s">
         <v>89</v>
       </c>
-      <c r="F40" s="121" t="s">
+      <c r="G40" s="121" t="s">
         <v>90</v>
       </c>
-      <c r="G40" s="121" t="s">
+      <c r="H40" s="121" t="s">
         <v>91</v>
       </c>
-      <c r="H40" s="121" t="s">
+      <c r="I40" s="121" t="s">
         <v>92</v>
       </c>
-      <c r="I40" s="121" t="s">
+      <c r="J40" s="121" t="s">
         <v>93</v>
       </c>
-      <c r="J40" s="121" t="s">
+      <c r="K40" s="121" t="s">
         <v>94</v>
       </c>
-      <c r="K40" s="121" t="s">
-        <v>95</v>
-      </c>
       <c r="L40" s="121" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
@@ -13904,7 +13904,7 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="119" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B75" s="117">
         <v>263.41979905172434</v>
@@ -13943,7 +13943,7 @@
     </row>
     <row r="76" spans="1:12" s="122" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="122" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B76" s="123">
         <v>268.19651462157481</v>
@@ -13991,37 +13991,37 @@
         <v>59</v>
       </c>
       <c r="B79" s="121" t="s">
+        <v>95</v>
+      </c>
+      <c r="C79" s="121" t="s">
         <v>96</v>
       </c>
-      <c r="C79" s="121" t="s">
+      <c r="D79" s="121" t="s">
         <v>97</v>
       </c>
-      <c r="D79" s="121" t="s">
+      <c r="E79" s="121" t="s">
         <v>98</v>
       </c>
-      <c r="E79" s="121" t="s">
+      <c r="F79" s="121" t="s">
         <v>99</v>
       </c>
-      <c r="F79" s="121" t="s">
+      <c r="G79" s="121" t="s">
         <v>100</v>
       </c>
-      <c r="G79" s="121" t="s">
+      <c r="H79" s="121" t="s">
         <v>101</v>
       </c>
-      <c r="H79" s="121" t="s">
+      <c r="I79" s="121" t="s">
         <v>102</v>
       </c>
-      <c r="I79" s="121" t="s">
+      <c r="J79" s="121" t="s">
         <v>103</v>
       </c>
-      <c r="J79" s="121" t="s">
+      <c r="K79" s="121" t="s">
         <v>104</v>
       </c>
-      <c r="K79" s="121" t="s">
+      <c r="L79" s="121" t="s">
         <v>105</v>
-      </c>
-      <c r="L79" s="121" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
@@ -14380,7 +14380,7 @@
         <v>11</v>
       </c>
       <c r="L89" s="126" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
@@ -14583,7 +14583,7 @@
         <v>17</v>
       </c>
       <c r="L95" s="126" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
@@ -15137,7 +15137,7 @@
         <v>32</v>
       </c>
       <c r="L110" s="126" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
@@ -15259,7 +15259,7 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" s="119" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B114" s="117">
         <v>285.39491838095233</v>
@@ -15298,7 +15298,7 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" s="122" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B115" s="123">
         <v>286.10294681438876</v>
@@ -15419,7 +15419,7 @@
         <v>64</v>
       </c>
       <c r="X2" s="183" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Y2" s="171" t="s">
         <v>56</v>
@@ -16133,7 +16133,7 @@
         <v>279.91727077738096</v>
       </c>
       <c r="AA11" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
@@ -16451,7 +16451,7 @@
         <v>268.17209262234036</v>
       </c>
       <c r="AA15" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
@@ -17478,7 +17478,7 @@
         <v>260.73255330428134</v>
       </c>
       <c r="AA28" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.2">
@@ -17714,7 +17714,7 @@
     </row>
     <row r="33" spans="1:23" s="57" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="A33" s="75" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B33" s="75"/>
       <c r="C33" s="82"/>
@@ -17778,37 +17778,37 @@
         <v>57</v>
       </c>
       <c r="B2" s="137" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="137" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="137" t="s">
+      <c r="D2" s="137" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="137" t="s">
+      <c r="E2" s="137" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="137" t="s">
+      <c r="F2" s="137" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="137" t="s">
+      <c r="G2" s="137" t="s">
         <v>78</v>
       </c>
-      <c r="G2" s="137" t="s">
+      <c r="H2" s="137" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="137" t="s">
+      <c r="I2" s="137" t="s">
         <v>80</v>
       </c>
-      <c r="I2" s="137" t="s">
+      <c r="J2" s="137" t="s">
         <v>81</v>
       </c>
-      <c r="J2" s="137" t="s">
+      <c r="K2" s="137" t="s">
         <v>82</v>
       </c>
-      <c r="K2" s="137" t="s">
-        <v>83</v>
-      </c>
       <c r="L2" s="138" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -18827,7 +18827,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="119" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B29" s="135">
         <v>279.48071342918638</v>
@@ -18869,37 +18869,37 @@
         <v>58</v>
       </c>
       <c r="B32" s="137" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="137" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="137" t="s">
+      <c r="D32" s="137" t="s">
         <v>87</v>
       </c>
-      <c r="D32" s="137" t="s">
+      <c r="E32" s="137" t="s">
         <v>88</v>
       </c>
-      <c r="E32" s="137" t="s">
+      <c r="F32" s="137" t="s">
         <v>89</v>
       </c>
-      <c r="F32" s="137" t="s">
+      <c r="G32" s="137" t="s">
         <v>90</v>
       </c>
-      <c r="G32" s="137" t="s">
+      <c r="H32" s="137" t="s">
         <v>91</v>
       </c>
-      <c r="H32" s="137" t="s">
+      <c r="I32" s="137" t="s">
         <v>92</v>
       </c>
-      <c r="I32" s="137" t="s">
+      <c r="J32" s="137" t="s">
         <v>93</v>
       </c>
-      <c r="J32" s="137" t="s">
+      <c r="K32" s="137" t="s">
         <v>94</v>
       </c>
-      <c r="K32" s="137" t="s">
-        <v>95</v>
-      </c>
       <c r="L32" s="138" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -19918,7 +19918,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="119" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B59" s="135">
         <v>274.74328948519144</v>
@@ -19960,37 +19960,37 @@
         <v>59</v>
       </c>
       <c r="B62" s="137" t="s">
+        <v>95</v>
+      </c>
+      <c r="C62" s="137" t="s">
         <v>96</v>
       </c>
-      <c r="C62" s="137" t="s">
+      <c r="D62" s="137" t="s">
         <v>97</v>
       </c>
-      <c r="D62" s="137" t="s">
+      <c r="E62" s="137" t="s">
         <v>98</v>
       </c>
-      <c r="E62" s="137" t="s">
+      <c r="F62" s="137" t="s">
         <v>99</v>
       </c>
-      <c r="F62" s="137" t="s">
+      <c r="G62" s="137" t="s">
         <v>100</v>
       </c>
-      <c r="G62" s="137" t="s">
+      <c r="H62" s="137" t="s">
         <v>101</v>
       </c>
-      <c r="H62" s="137" t="s">
+      <c r="I62" s="137" t="s">
         <v>102</v>
       </c>
-      <c r="I62" s="137" t="s">
+      <c r="J62" s="137" t="s">
         <v>103</v>
       </c>
-      <c r="J62" s="137" t="s">
+      <c r="K62" s="137" t="s">
         <v>104</v>
       </c>
-      <c r="K62" s="137" t="s">
+      <c r="L62" s="138" t="s">
         <v>105</v>
-      </c>
-      <c r="L62" s="138" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
@@ -21009,7 +21009,7 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="119" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B89" s="135">
         <v>289.45784266173581</v>

--- a/Sample descriptive statistics.xlsx
+++ b/Sample descriptive statistics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yimi/Desktop/Desktop Contents/Dissertation/Data Analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yimizhao/Documents/Dissertation/Data Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F3BDA2-A639-6443-91CD-350CE61CBCF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624C4F53-EE8C-5243-8EFD-1956C55CD87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53120" yWindow="2460" windowWidth="47340" windowHeight="28180" xr2:uid="{A57578E6-31BD-C54B-9DD4-584B5A4E74C6}"/>
+    <workbookView xWindow="1600" yWindow="500" windowWidth="27840" windowHeight="17500" xr2:uid="{A57578E6-31BD-C54B-9DD4-584B5A4E74C6}"/>
   </bookViews>
   <sheets>
     <sheet name="study 1_summary%" sheetId="2" r:id="rId1"/>
@@ -626,7 +626,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1051,33 +1051,6 @@
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1105,17 +1078,32 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1129,13 +1117,37 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1150,17 +1162,11 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1174,11 +1180,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1532,59 +1550,59 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:24" s="73" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="152" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="153" t="s">
+      <c r="B2" s="144" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="155" t="s">
+      <c r="C2" s="146" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="157" t="s">
+      <c r="D2" s="148" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="158"/>
-      <c r="F2" s="159" t="s">
+      <c r="E2" s="149"/>
+      <c r="F2" s="150" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="159"/>
-      <c r="H2" s="157" t="s">
+      <c r="G2" s="150"/>
+      <c r="H2" s="148" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="158"/>
-      <c r="J2" s="148" t="s">
+      <c r="I2" s="149"/>
+      <c r="J2" s="151" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="148"/>
-      <c r="L2" s="148"/>
-      <c r="M2" s="148"/>
-      <c r="N2" s="146" t="s">
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
+      <c r="N2" s="156" t="s">
         <v>60</v>
       </c>
-      <c r="O2" s="147"/>
-      <c r="P2" s="148" t="s">
+      <c r="O2" s="157"/>
+      <c r="P2" s="151" t="s">
         <v>52</v>
       </c>
-      <c r="Q2" s="148"/>
-      <c r="R2" s="148"/>
-      <c r="S2" s="148"/>
-      <c r="T2" s="149" t="s">
+      <c r="Q2" s="151"/>
+      <c r="R2" s="151"/>
+      <c r="S2" s="151"/>
+      <c r="T2" s="158" t="s">
         <v>65</v>
       </c>
-      <c r="U2" s="144" t="s">
+      <c r="U2" s="154" t="s">
         <v>66</v>
       </c>
-      <c r="V2" s="151" t="s">
+      <c r="V2" s="142" t="s">
         <v>56</v>
       </c>
-      <c r="W2" s="152"/>
-      <c r="X2" s="152"/>
+      <c r="W2" s="143"/>
+      <c r="X2" s="143"/>
     </row>
     <row r="3" spans="1:24" s="95" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="143"/>
-      <c r="B3" s="154"/>
-      <c r="C3" s="156"/>
+      <c r="A3" s="153"/>
+      <c r="B3" s="145"/>
+      <c r="C3" s="147"/>
       <c r="D3" s="87" t="s">
         <v>0</v>
       </c>
@@ -1633,8 +1651,8 @@
       <c r="S3" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="T3" s="150"/>
-      <c r="U3" s="145"/>
+      <c r="T3" s="159"/>
+      <c r="U3" s="155"/>
       <c r="V3" s="93" t="s">
         <v>57</v>
       </c>
@@ -5130,6 +5148,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:T3"/>
     <mergeCell ref="V2:X2"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -5137,11 +5160,6 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:M2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:T3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5152,7 +5170,7 @@
   <dimension ref="A2:W33"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC19" sqref="AC19"/>
+      <selection activeCell="Y3" sqref="Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -5160,7 +5178,7 @@
     <col min="1" max="1" width="4" style="98" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="99" customWidth="1"/>
     <col min="3" max="3" width="8" style="82" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.1640625" style="83" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" style="83" customWidth="1"/>
     <col min="5" max="5" width="6.6640625" style="83" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.6640625" style="83" customWidth="1"/>
     <col min="7" max="7" width="5.1640625" style="83" customWidth="1"/>
@@ -5183,74 +5201,74 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:23" s="102" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="164" t="s">
+      <c r="A2" s="160" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="166" t="s">
+      <c r="B2" s="162" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="155" t="s">
+      <c r="C2" s="146" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="157" t="s">
+      <c r="D2" s="148" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="158"/>
-      <c r="F2" s="159" t="s">
+      <c r="E2" s="149"/>
+      <c r="F2" s="150" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="159"/>
-      <c r="H2" s="157" t="s">
+      <c r="G2" s="150"/>
+      <c r="H2" s="148" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="158"/>
-      <c r="J2" s="148" t="s">
+      <c r="I2" s="149"/>
+      <c r="J2" s="151" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="148"/>
-      <c r="L2" s="148"/>
-      <c r="M2" s="148"/>
-      <c r="N2" s="146" t="s">
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
+      <c r="N2" s="156" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="148"/>
-      <c r="P2" s="148"/>
-      <c r="Q2" s="147"/>
-      <c r="R2" s="149" t="s">
+      <c r="O2" s="151"/>
+      <c r="P2" s="151"/>
+      <c r="Q2" s="157"/>
+      <c r="R2" s="158" t="s">
         <v>65</v>
       </c>
-      <c r="S2" s="160" t="s">
+      <c r="S2" s="164" t="s">
         <v>66</v>
       </c>
-      <c r="T2" s="160" t="s">
+      <c r="T2" s="164" t="s">
         <v>106</v>
       </c>
-      <c r="U2" s="162" t="s">
+      <c r="U2" s="166" t="s">
         <v>56</v>
       </c>
-      <c r="V2" s="163"/>
-      <c r="W2" s="163"/>
+      <c r="V2" s="167"/>
+      <c r="W2" s="167"/>
     </row>
     <row r="3" spans="1:23" s="106" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A3" s="165"/>
-      <c r="B3" s="167"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="87" t="s">
+      <c r="A3" s="161"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="185" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="88" t="s">
+      <c r="E3" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="89" t="s">
+      <c r="F3" s="187" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="89" t="s">
+      <c r="G3" s="187" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="87" t="s">
+      <c r="H3" s="185" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="88" t="s">
+      <c r="I3" s="186" t="s">
         <v>41</v>
       </c>
       <c r="J3" s="103" t="s">
@@ -5265,21 +5283,21 @@
       <c r="M3" s="103" t="s">
         <v>70</v>
       </c>
-      <c r="N3" s="90" t="s">
+      <c r="N3" s="188" t="s">
         <v>44</v>
       </c>
-      <c r="O3" s="92" t="s">
+      <c r="O3" s="189" t="s">
         <v>45</v>
       </c>
-      <c r="P3" s="92" t="s">
+      <c r="P3" s="189" t="s">
         <v>46</v>
       </c>
-      <c r="Q3" s="91" t="s">
+      <c r="Q3" s="190" t="s">
         <v>47</v>
       </c>
-      <c r="R3" s="150"/>
-      <c r="S3" s="161"/>
-      <c r="T3" s="161"/>
+      <c r="R3" s="159"/>
+      <c r="S3" s="165"/>
+      <c r="T3" s="165"/>
       <c r="U3" s="104" t="s">
         <v>57</v>
       </c>
@@ -7854,11 +7872,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="N2:Q2"/>
     <mergeCell ref="R2:R3"/>
@@ -7866,6 +7879,11 @@
     <mergeCell ref="U2:W2"/>
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="T2:T3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7904,60 +7922,60 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:28" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="175" t="s">
+      <c r="A2" s="168" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="177" t="s">
+      <c r="B2" s="170" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="169" t="s">
+      <c r="C2" s="172" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="170"/>
-      <c r="E2" s="168" t="s">
+      <c r="D2" s="173"/>
+      <c r="E2" s="174" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="168"/>
-      <c r="G2" s="169" t="s">
+      <c r="F2" s="174"/>
+      <c r="G2" s="172" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="168"/>
-      <c r="I2" s="170"/>
-      <c r="J2" s="168" t="s">
+      <c r="H2" s="174"/>
+      <c r="I2" s="173"/>
+      <c r="J2" s="174" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="168"/>
-      <c r="L2" s="168"/>
-      <c r="M2" s="168"/>
-      <c r="N2" s="168"/>
-      <c r="O2" s="169" t="s">
+      <c r="K2" s="174"/>
+      <c r="L2" s="174"/>
+      <c r="M2" s="174"/>
+      <c r="N2" s="174"/>
+      <c r="O2" s="172" t="s">
         <v>60</v>
       </c>
-      <c r="P2" s="170"/>
-      <c r="Q2" s="168" t="s">
+      <c r="P2" s="173"/>
+      <c r="Q2" s="174" t="s">
         <v>52</v>
       </c>
-      <c r="R2" s="168"/>
-      <c r="S2" s="168"/>
-      <c r="T2" s="168"/>
-      <c r="U2" s="168"/>
-      <c r="V2" s="169" t="s">
+      <c r="R2" s="174"/>
+      <c r="S2" s="174"/>
+      <c r="T2" s="174"/>
+      <c r="U2" s="174"/>
+      <c r="V2" s="172" t="s">
         <v>63</v>
       </c>
-      <c r="W2" s="168"/>
-      <c r="X2" s="170"/>
-      <c r="Y2" s="173" t="s">
+      <c r="W2" s="174"/>
+      <c r="X2" s="173"/>
+      <c r="Y2" s="177" t="s">
         <v>64</v>
       </c>
-      <c r="Z2" s="171" t="s">
+      <c r="Z2" s="175" t="s">
         <v>56</v>
       </c>
-      <c r="AA2" s="172"/>
-      <c r="AB2" s="172"/>
+      <c r="AA2" s="176"/>
+      <c r="AB2" s="176"/>
     </row>
     <row r="3" spans="1:28" s="7" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="176"/>
-      <c r="B3" s="178"/>
+      <c r="A3" s="169"/>
+      <c r="B3" s="171"/>
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -8024,7 +8042,7 @@
       <c r="X3" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="Y3" s="174"/>
+      <c r="Y3" s="178"/>
       <c r="Z3" s="5" t="s">
         <v>57</v>
       </c>
@@ -11057,17 +11075,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:I2"/>
     <mergeCell ref="J2:N2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="Q2:U2"/>
     <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="Y2:Y3"/>
     <mergeCell ref="V2:X2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15377,59 +15395,59 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="179" t="s">
+      <c r="A2" s="181" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="181" t="s">
+      <c r="B2" s="183" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="169" t="s">
+      <c r="C2" s="172" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="170"/>
-      <c r="E2" s="168" t="s">
+      <c r="D2" s="173"/>
+      <c r="E2" s="174" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="168"/>
-      <c r="G2" s="169" t="s">
+      <c r="F2" s="174"/>
+      <c r="G2" s="172" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="168"/>
-      <c r="I2" s="170"/>
-      <c r="J2" s="168" t="s">
+      <c r="H2" s="174"/>
+      <c r="I2" s="173"/>
+      <c r="J2" s="174" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="168"/>
-      <c r="L2" s="168"/>
-      <c r="M2" s="168"/>
-      <c r="N2" s="168"/>
-      <c r="O2" s="169" t="s">
+      <c r="K2" s="174"/>
+      <c r="L2" s="174"/>
+      <c r="M2" s="174"/>
+      <c r="N2" s="174"/>
+      <c r="O2" s="172" t="s">
         <v>52</v>
       </c>
-      <c r="P2" s="168"/>
-      <c r="Q2" s="168"/>
-      <c r="R2" s="168"/>
-      <c r="S2" s="170"/>
-      <c r="T2" s="169" t="s">
+      <c r="P2" s="174"/>
+      <c r="Q2" s="174"/>
+      <c r="R2" s="174"/>
+      <c r="S2" s="173"/>
+      <c r="T2" s="172" t="s">
         <v>63</v>
       </c>
-      <c r="U2" s="168"/>
-      <c r="V2" s="170"/>
-      <c r="W2" s="173" t="s">
+      <c r="U2" s="174"/>
+      <c r="V2" s="173"/>
+      <c r="W2" s="177" t="s">
         <v>64</v>
       </c>
-      <c r="X2" s="183" t="s">
+      <c r="X2" s="179" t="s">
         <v>106</v>
       </c>
-      <c r="Y2" s="171" t="s">
+      <c r="Y2" s="175" t="s">
         <v>56</v>
       </c>
-      <c r="Z2" s="172"/>
-      <c r="AA2" s="172"/>
+      <c r="Z2" s="176"/>
+      <c r="AA2" s="176"/>
     </row>
     <row r="3" spans="1:27" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.2">
-      <c r="A3" s="180"/>
-      <c r="B3" s="182"/>
+      <c r="A3" s="182"/>
+      <c r="B3" s="184"/>
       <c r="C3" s="127" t="s">
         <v>0</v>
       </c>
@@ -15490,8 +15508,8 @@
       <c r="V3" s="128" t="s">
         <v>71</v>
       </c>
-      <c r="W3" s="174"/>
-      <c r="X3" s="184"/>
+      <c r="W3" s="178"/>
+      <c r="X3" s="180"/>
       <c r="Y3" s="130" t="s">
         <v>57</v>
       </c>
@@ -17741,17 +17759,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:I2"/>
     <mergeCell ref="J2:N2"/>
     <mergeCell ref="O2:S2"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:W3"/>
     <mergeCell ref="Y2:AA2"/>
     <mergeCell ref="X2:X3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sample descriptive statistics.xlsx
+++ b/Sample descriptive statistics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yimizhao/Documents/Dissertation/Data Analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yimi/Desktop/Desktop Contents/Dissertation/Data Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2ABDA2-D214-EA43-AC58-5F78AF020B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D926ED-4470-0444-834E-8D9BA0A95200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="500" windowWidth="27840" windowHeight="17500" xr2:uid="{A57578E6-31BD-C54B-9DD4-584B5A4E74C6}"/>
+    <workbookView xWindow="4060" yWindow="2900" windowWidth="29360" windowHeight="20740" xr2:uid="{A57578E6-31BD-C54B-9DD4-584B5A4E74C6}"/>
   </bookViews>
   <sheets>
     <sheet name="study 1_summary%" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Study 2_summary" sheetId="6" r:id="rId4"/>
     <sheet name="Study 1_PV scores" sheetId="8" r:id="rId5"/>
     <sheet name="Study 2_PV scores" sheetId="9" r:id="rId6"/>
+    <sheet name="Notes" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="117">
   <si>
     <t>25to29</t>
   </si>
@@ -372,6 +373,30 @@
   <si>
     <t>STEM: 32,826; highest formal education: 38,533; occupation: 36, 687; job-related training: 38,493; work experience: 36,269; literacy/numeracy score: 38,541; PSTRE score: 30,079</t>
   </si>
+  <si>
+    <t>The sample size is 38, 552 individuals across 35 countries.</t>
+  </si>
+  <si>
+    <t>The pooled average combined literacy and numeracy skill score of the sample was 270.3 points (on 0~500 scale) with standard deviation of 52.6 points.</t>
+  </si>
+  <si>
+    <t>The pooled average PSTRE skill score for our sample was 286.1 points (on 0~500 scale) with a standard deviation of 46.2 points.</t>
+  </si>
+  <si>
+    <t>Study 1</t>
+  </si>
+  <si>
+    <t>Study 2</t>
+  </si>
+  <si>
+    <t>The sample size is 18,572 individuals across 26 countries.</t>
+  </si>
+  <si>
+    <t>The pooled average combined literacy and numeracy skill score of the sample was 277.2 points (on 0~500 scale) with standard deviation of 49.5 points.</t>
+  </si>
+  <si>
+    <t>The pooled average PSTRE skill score for our sample was 289.6 points (on 0~500 scale) with a standard deviation of 45.0 points.</t>
+  </si>
 </sst>
 </file>
 
@@ -383,7 +408,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -418,6 +443,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0432FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -626,7 +658,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1069,33 +1101,6 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1123,17 +1128,32 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1147,13 +1167,37 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1168,17 +1212,11 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1192,11 +1230,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1550,59 +1600,59 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:24" s="73" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="158" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="159" t="s">
+      <c r="B2" s="150" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="161" t="s">
+      <c r="C2" s="152" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="163" t="s">
+      <c r="D2" s="154" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="164"/>
-      <c r="F2" s="165" t="s">
+      <c r="E2" s="155"/>
+      <c r="F2" s="156" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="165"/>
-      <c r="H2" s="163" t="s">
+      <c r="G2" s="156"/>
+      <c r="H2" s="154" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="164"/>
-      <c r="J2" s="154" t="s">
+      <c r="I2" s="155"/>
+      <c r="J2" s="157" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="152" t="s">
+      <c r="K2" s="157"/>
+      <c r="L2" s="157"/>
+      <c r="M2" s="157"/>
+      <c r="N2" s="162" t="s">
         <v>60</v>
       </c>
-      <c r="O2" s="153"/>
-      <c r="P2" s="154" t="s">
+      <c r="O2" s="163"/>
+      <c r="P2" s="157" t="s">
         <v>52</v>
       </c>
-      <c r="Q2" s="154"/>
-      <c r="R2" s="154"/>
-      <c r="S2" s="154"/>
-      <c r="T2" s="155" t="s">
+      <c r="Q2" s="157"/>
+      <c r="R2" s="157"/>
+      <c r="S2" s="157"/>
+      <c r="T2" s="164" t="s">
         <v>65</v>
       </c>
-      <c r="U2" s="150" t="s">
+      <c r="U2" s="160" t="s">
         <v>66</v>
       </c>
-      <c r="V2" s="157" t="s">
+      <c r="V2" s="148" t="s">
         <v>56</v>
       </c>
-      <c r="W2" s="158"/>
-      <c r="X2" s="158"/>
+      <c r="W2" s="149"/>
+      <c r="X2" s="149"/>
     </row>
     <row r="3" spans="1:24" s="95" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="149"/>
-      <c r="B3" s="160"/>
-      <c r="C3" s="162"/>
+      <c r="A3" s="159"/>
+      <c r="B3" s="151"/>
+      <c r="C3" s="153"/>
       <c r="D3" s="87" t="s">
         <v>0</v>
       </c>
@@ -1651,8 +1701,8 @@
       <c r="S3" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="T3" s="156"/>
-      <c r="U3" s="151"/>
+      <c r="T3" s="165"/>
+      <c r="U3" s="161"/>
       <c r="V3" s="93" t="s">
         <v>57</v>
       </c>
@@ -5148,6 +5198,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:T3"/>
     <mergeCell ref="V2:X2"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -5155,11 +5210,6 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:M2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:T3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5201,58 +5251,58 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:23" s="102" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="170" t="s">
+      <c r="A2" s="166" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="172" t="s">
+      <c r="B2" s="168" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="161" t="s">
+      <c r="C2" s="152" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="163" t="s">
+      <c r="D2" s="154" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="164"/>
-      <c r="F2" s="165" t="s">
+      <c r="E2" s="155"/>
+      <c r="F2" s="156" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="165"/>
-      <c r="H2" s="163" t="s">
+      <c r="G2" s="156"/>
+      <c r="H2" s="154" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="164"/>
-      <c r="J2" s="154" t="s">
+      <c r="I2" s="155"/>
+      <c r="J2" s="157" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="152" t="s">
+      <c r="K2" s="157"/>
+      <c r="L2" s="157"/>
+      <c r="M2" s="157"/>
+      <c r="N2" s="162" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="154"/>
-      <c r="P2" s="154"/>
-      <c r="Q2" s="153"/>
-      <c r="R2" s="155" t="s">
+      <c r="O2" s="157"/>
+      <c r="P2" s="157"/>
+      <c r="Q2" s="163"/>
+      <c r="R2" s="164" t="s">
         <v>65</v>
       </c>
-      <c r="S2" s="166" t="s">
+      <c r="S2" s="170" t="s">
         <v>66</v>
       </c>
-      <c r="T2" s="166" t="s">
+      <c r="T2" s="170" t="s">
         <v>106</v>
       </c>
-      <c r="U2" s="168" t="s">
+      <c r="U2" s="172" t="s">
         <v>56</v>
       </c>
-      <c r="V2" s="169"/>
-      <c r="W2" s="169"/>
+      <c r="V2" s="173"/>
+      <c r="W2" s="173"/>
     </row>
     <row r="3" spans="1:23" s="106" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A3" s="171"/>
-      <c r="B3" s="173"/>
-      <c r="C3" s="162"/>
+      <c r="A3" s="167"/>
+      <c r="B3" s="169"/>
+      <c r="C3" s="153"/>
       <c r="D3" s="142" t="s">
         <v>0</v>
       </c>
@@ -5295,9 +5345,9 @@
       <c r="Q3" s="147" t="s">
         <v>47</v>
       </c>
-      <c r="R3" s="156"/>
-      <c r="S3" s="167"/>
-      <c r="T3" s="167"/>
+      <c r="R3" s="165"/>
+      <c r="S3" s="171"/>
+      <c r="T3" s="171"/>
       <c r="U3" s="104" t="s">
         <v>57</v>
       </c>
@@ -7872,11 +7922,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="N2:Q2"/>
     <mergeCell ref="R2:R3"/>
@@ -7884,6 +7929,11 @@
     <mergeCell ref="U2:W2"/>
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="T2:T3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7922,60 +7972,60 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:28" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="181" t="s">
+      <c r="A2" s="174" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="183" t="s">
+      <c r="B2" s="176" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="175" t="s">
+      <c r="C2" s="178" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="176"/>
-      <c r="E2" s="174" t="s">
+      <c r="D2" s="179"/>
+      <c r="E2" s="180" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="174"/>
-      <c r="G2" s="175" t="s">
+      <c r="F2" s="180"/>
+      <c r="G2" s="178" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="174"/>
-      <c r="I2" s="176"/>
-      <c r="J2" s="174" t="s">
+      <c r="H2" s="180"/>
+      <c r="I2" s="179"/>
+      <c r="J2" s="180" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="174"/>
-      <c r="L2" s="174"/>
-      <c r="M2" s="174"/>
-      <c r="N2" s="174"/>
-      <c r="O2" s="175" t="s">
+      <c r="K2" s="180"/>
+      <c r="L2" s="180"/>
+      <c r="M2" s="180"/>
+      <c r="N2" s="180"/>
+      <c r="O2" s="178" t="s">
         <v>60</v>
       </c>
-      <c r="P2" s="176"/>
-      <c r="Q2" s="174" t="s">
+      <c r="P2" s="179"/>
+      <c r="Q2" s="180" t="s">
         <v>52</v>
       </c>
-      <c r="R2" s="174"/>
-      <c r="S2" s="174"/>
-      <c r="T2" s="174"/>
-      <c r="U2" s="174"/>
-      <c r="V2" s="175" t="s">
+      <c r="R2" s="180"/>
+      <c r="S2" s="180"/>
+      <c r="T2" s="180"/>
+      <c r="U2" s="180"/>
+      <c r="V2" s="178" t="s">
         <v>63</v>
       </c>
-      <c r="W2" s="174"/>
-      <c r="X2" s="176"/>
-      <c r="Y2" s="179" t="s">
+      <c r="W2" s="180"/>
+      <c r="X2" s="179"/>
+      <c r="Y2" s="183" t="s">
         <v>64</v>
       </c>
-      <c r="Z2" s="177" t="s">
+      <c r="Z2" s="181" t="s">
         <v>56</v>
       </c>
-      <c r="AA2" s="178"/>
-      <c r="AB2" s="178"/>
+      <c r="AA2" s="182"/>
+      <c r="AB2" s="182"/>
     </row>
     <row r="3" spans="1:28" s="7" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="182"/>
-      <c r="B3" s="184"/>
+      <c r="A3" s="175"/>
+      <c r="B3" s="177"/>
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -8042,7 +8092,7 @@
       <c r="X3" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="Y3" s="180"/>
+      <c r="Y3" s="184"/>
       <c r="Z3" s="5" t="s">
         <v>57</v>
       </c>
@@ -11075,17 +11125,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:I2"/>
     <mergeCell ref="J2:N2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="Q2:U2"/>
     <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="Y2:Y3"/>
     <mergeCell ref="V2:X2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11128,59 +11178,59 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:27" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="185" t="s">
+      <c r="A2" s="187" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="187" t="s">
+      <c r="B2" s="189" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="175" t="s">
+      <c r="C2" s="178" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="176"/>
-      <c r="E2" s="174" t="s">
+      <c r="D2" s="179"/>
+      <c r="E2" s="180" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="174"/>
-      <c r="G2" s="175" t="s">
+      <c r="F2" s="180"/>
+      <c r="G2" s="178" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="174"/>
-      <c r="I2" s="176"/>
-      <c r="J2" s="174" t="s">
+      <c r="H2" s="180"/>
+      <c r="I2" s="179"/>
+      <c r="J2" s="180" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="174"/>
-      <c r="L2" s="174"/>
-      <c r="M2" s="174"/>
-      <c r="N2" s="174"/>
-      <c r="O2" s="175" t="s">
+      <c r="K2" s="180"/>
+      <c r="L2" s="180"/>
+      <c r="M2" s="180"/>
+      <c r="N2" s="180"/>
+      <c r="O2" s="178" t="s">
         <v>52</v>
       </c>
-      <c r="P2" s="174"/>
-      <c r="Q2" s="174"/>
-      <c r="R2" s="174"/>
-      <c r="S2" s="176"/>
-      <c r="T2" s="175" t="s">
+      <c r="P2" s="180"/>
+      <c r="Q2" s="180"/>
+      <c r="R2" s="180"/>
+      <c r="S2" s="179"/>
+      <c r="T2" s="178" t="s">
         <v>63</v>
       </c>
-      <c r="U2" s="174"/>
-      <c r="V2" s="176"/>
-      <c r="W2" s="179" t="s">
+      <c r="U2" s="180"/>
+      <c r="V2" s="179"/>
+      <c r="W2" s="183" t="s">
         <v>64</v>
       </c>
-      <c r="X2" s="189" t="s">
+      <c r="X2" s="185" t="s">
         <v>106</v>
       </c>
-      <c r="Y2" s="177" t="s">
+      <c r="Y2" s="181" t="s">
         <v>56</v>
       </c>
-      <c r="Z2" s="178"/>
-      <c r="AA2" s="178"/>
+      <c r="Z2" s="182"/>
+      <c r="AA2" s="182"/>
     </row>
     <row r="3" spans="1:27" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.2">
-      <c r="A3" s="186"/>
-      <c r="B3" s="188"/>
+      <c r="A3" s="188"/>
+      <c r="B3" s="190"/>
       <c r="C3" s="127" t="s">
         <v>0</v>
       </c>
@@ -11241,8 +11291,8 @@
       <c r="V3" s="128" t="s">
         <v>71</v>
       </c>
-      <c r="W3" s="180"/>
-      <c r="X3" s="190"/>
+      <c r="W3" s="184"/>
+      <c r="X3" s="186"/>
       <c r="Y3" s="130" t="s">
         <v>57</v>
       </c>
@@ -13492,17 +13542,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:I2"/>
     <mergeCell ref="J2:N2"/>
     <mergeCell ref="O2:S2"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:W3"/>
     <mergeCell ref="Y2:AA2"/>
     <mergeCell ref="X2:X3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21067,4 +21117,104 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B75C8665-E202-AD43-9F25-8D9ABD6AF92A}">
+  <dimension ref="A1:L9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="Q41" sqref="Q41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="194"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="192" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="192" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="195" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="198" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="196"/>
+      <c r="G2" s="196"/>
+      <c r="K2" s="191"/>
+      <c r="L2" s="191"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="198" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="197"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="197"/>
+      <c r="F3" s="197"/>
+      <c r="G3" s="197"/>
+      <c r="K3" s="193"/>
+      <c r="L3" s="193"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="194" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="197"/>
+      <c r="D4" s="197"/>
+      <c r="E4" s="197"/>
+      <c r="F4" s="197"/>
+      <c r="G4" s="197"/>
+      <c r="K4" s="193"/>
+      <c r="L4" s="193"/>
+    </row>
+    <row r="6" spans="1:12" s="192" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="192" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="195" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="198" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="196"/>
+      <c r="D7" s="196"/>
+      <c r="E7" s="196"/>
+      <c r="F7" s="196"/>
+      <c r="G7" s="196"/>
+      <c r="K7" s="191"/>
+      <c r="L7" s="191"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="198" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="197"/>
+      <c r="D8" s="197"/>
+      <c r="E8" s="197"/>
+      <c r="F8" s="197"/>
+      <c r="G8" s="197"/>
+      <c r="K8" s="193"/>
+      <c r="L8" s="193"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="194" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="197"/>
+      <c r="D9" s="197"/>
+      <c r="E9" s="197"/>
+      <c r="F9" s="197"/>
+      <c r="G9" s="197"/>
+      <c r="K9" s="193"/>
+      <c r="L9" s="193"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>